--- a/Data/quarterly_analysis_results.xlsx
+++ b/Data/quarterly_analysis_results.xlsx
@@ -473,47 +473,88 @@
       <c r="B2" t="inlineStr">
         <is>
           <t>## 1. KEY CHANGES SUMMARY
-- **Overall Banking Sector Performance and Market Conditions:**
-  - The Vietnamese banking sector in 1Q24 experienced mixed performance, with a general trend of profitability pressures due to rising provision expenses and margin compression.
-  - Loan growth was generally positive, with several banks outpacing the sector average, but asset quality concerns were prevalent, with many banks reporting rising non-performing loans (NPLs) and group 2 loans.
-  - Net interest margins (NIMs) generally compressed across the sector, reflecting competitive pressures and a shift towards lower-yielding loans.
-- **Common Themes and Patterns Across Different Bank Types:**
-  - **State-Owned Commercial Banks (SOCBs):** Showed stable profitability but faced challenges in loan growth and asset quality, with rising NPLs and provision expenses.
-  - **Private Banks:** Demonstrated varied performance, with some achieving strong loan growth and profitability rebounds, while others faced significant margin compression and asset quality deterioration.
-  - **Smaller Banks (Private_3):** Generally struggled with profitability and asset quality, with several reporting sharp reversals in topline and profit momentum.
+**Overall Banking Sector Performance and Market Conditions**
+- **Profitability under pressure:** Many banks reported sequential declines in profitability, largely due to rising provision expenses, margin compression, and normalization after one-off gains in 4Q23.
+- **NIM compression widespread:** Net interest margins continued to compress across most banks, reflecting falling loan yields, competitive pricing, and asset mix shifts.
+- **Loan growth mixed:** While some banks posted robust loan growth (notably in the private sector), others saw momentum stall or even contract, indicating a more cautious lending environment.
+- **Asset quality deterioration:** NPL and Group 2 ratios increased at many banks, with coverage ratios slipping, signaling rising credit risk and the onset of a more challenging credit cycle.
+- **Provision-driven profit swings:** Several banks’ profit rebounds were driven by sharply lower provision expenses rather than core business strength, masking underlying revenue and credit risks.
+**Common Themes and Patterns Across Bank Types**
+- **State-owned (SOCB) banks:** Generally showed more stable profitability but faced rising asset quality pressures and slower loan growth (e.g., BID, VCB, CTG).
+- **Large private banks:** Mixed performance—some (TCB, STB) delivered strong topline and profit growth with stable asset quality, while others (MBB, VPB, VIB) saw profit rebounds driven by provision cuts, but with rising credit risk and margin pressure.
+- **Mid/small private banks:** High volatility—many (ABB, BAB, BVB, KLB, VBB, SGB) experienced sharp swings in profitability, often due to provision normalization, with asset quality and margin risks intensifying.
+- **Sector-wide margin squeeze:** NIM compression is a universal theme, with only a few exceptions managing to stabilize or expand margins through improved funding cost management.
+- **Credit risk rising:** Across all bank types, asset quality metrics are deteriorating, with NPL formation and coverage ratios trending negatively.
+---
 ## 2. SENTIMENT ANALYSIS &amp; NOTABLE BANKS
-- **Overall Sector Sentiment:**
-  - The overall sentiment for the sector is neutral to negative, with concerns about asset quality and profitability overshadowing positive loan growth in some banks.
-- **Banks with Most Positive Developments:**
-  - **TCB (Techcombank):** Delivered standout performance with strong TOI and net profit growth, robust loan growth, and stable asset quality, marking it as a top performer.
-  - **MSB (Maritime Bank):** Showed a sharp rebound in profitability with strong TOI and PBT recovery, despite ongoing margin compression.
-- **Banks with Most Concerning Issues:**
-  - **VBB (VietBank):** Experienced a sharp reversal in profitability with significant drops in TOI and net profit, and rising provision expenses.
-  - **SGB (Saigonbank):** Faced a clear step back in profitability and asset quality, with significant declines in TOI and PBT, and rising NPLs and group 2 loans.
+**Overall Sector Sentiment**
+- **Cautiously negative/neutral:** The tone is generally cautious, with more negative surprises than positive. While some banks posted headline profit rebounds, these were often provision-driven and not underpinned by sustainable core business improvements. Asset quality and margin trends are the main sources of concern.
+**Banks with Most Positive Developments**
+- **Techcombank (TCB):**
+  - Standout topline and profit growth (TOI +11.3% QoQ, PBT +35.1% QoQ)
+  - Robust loan growth (+7.8% QoQ, +32.3% YoY)
+  - Margin recovery (NIM up to 4.4%), stable/improving asset quality (NPL down to 1.13%, coverage up)
+  - Strongest positive surprise among large private banks
+- **Sacombank (STB):**
+  - Solid topline and profit growth YoY, with accelerating loan growth and stable NIM
+  - Asset quality held steady, with improved coverage
+  - Underlying business momentum remains healthy
+- **LienVietPostBank (LPB):**
+  - Exceptional loan growth (+11.7% QoQ), outpacing sector
+  - Profitability moderated but remains strong; asset quality risk contained for now
+- **MSB, SHB:** Both rebounded in profitability due to normalized provisions, though underlying risks remain
+**Banks with Most Concerning Issues**
+- **MBBank (MBB):**
+  - Sharp profit decline (-7.8% QoQ, -11.0% YoY), surge in provisions (+70.6% QoQ)
+  - NPL ratio spiked to 2.5%, coverage fell to 0.80x (multi-year low)
+  - Loan growth stalled (+0.6% QoQ), margin compressed
+- **VIB:**
+  - Profit rebound driven solely by provision cuts, not core income
+  - Loan growth stalled (+0.3% QoQ), NIM compressed, NPLs rose to 3.6%, coverage weak
+- **SGB, VBB, ABB:** All suffered sharp reversals in profitability, margin compression, and rising asset quality risks
+- **NVB:** Continued negative profitability, critically low NPL coverage (6.4%), despite some stabilization in asset quality
+- **VPB:** Profit surge provision-driven, but early risk signals rising (Group 2 loans up to 8.3%, NPL coverage still low)
+---
 ## 3. SIGNIFICANT BANK CHANGES BY TOPIC
-**Net Interest Margin (NIM) &amp; Profitability:**
-- **Most Improved:**
-  - **TCB (Techcombank):** Achieved significant margin recovery with NIM rebounding to 4.4% and strong profitability growth driven by robust loan expansion and lower provision expenses.
-- **Most Concerning:**
-  - **VBB (VietBank):** Experienced sharp NIM compression to 1.3% from 2.3%, with profitability taking a significant hit due to surging provision expenses.
-**Credit Growth &amp; Lending:**
-- **Strongest Growth:**
-  - **TCB (Techcombank):** Achieved 7.8% QoQ loan growth, significantly outpacing the sector, driven by aggressive retail and corporate lending.
-- **Weakest/Declining:**
-  - **ABB (An Binh Bank):** Loan growth momentum collapsed with a 19.5% QoQ contraction, marking a sharp retrenchment in lending activity.
-**Asset Quality &amp; Risk Management:**
-- **Most Improved:**
-  - **STB (Sacombank):** Maintained stable asset quality with NPL and group 2 ratios broadly flat QoQ and improved coverage ratios, signaling contained credit risk.
-- **Most Deteriorated:**
-  - **SGB (Saigonbank):** Asset quality deteriorated with rising NPL and group 2 ratios, and coverage slipping, indicating emerging credit risk.
-**Insufficient data available** for some specific categories due to the lack of detailed quantitative insights in the comments provided.</t>
+### Net Interest Margin (NIM) &amp; Profitability
+- **Most improved:**
+  - **Techcombank (TCB):**
+    - NIM rebounded to 4.4% (from 4.2%), bucking sector trend
+    - TOI +11.3% QoQ, PBT +35.1% QoQ, ROA/ROE surged
+    - Margin expansion and lower provision expense drove best-in-class profit growth
+- **Most concerning:**
+  - **MBBank (MBB):**
+    - NIM compressed to 4.0% (lowest in two years), loan yields dropped to 8.3%
+    - Profit before tax fell 7.8% QoQ, 11.0% YoY; ROA/ROE both declined sharply
+    - Driven by surging provisions and margin pressure
+### Credit Growth &amp; Lending
+- **Strongest growth:**
+  - **LienVietPostBank (LPB):**
+    - Loan book up 11.7% QoQ, far outpacing sector (3.5%)
+    - Demonstrates aggressive expansion and market share gain
+- **Weakest/declining:**
+  - **ABBANK (ABB):**
+    - Loan book contracted 19.5% QoQ after prior surge
+    - Indicates sharp retrenchment in lending activity, well below sector trend
+### Asset Quality &amp; Risk Management
+- **Most improved:**
+  - **Techcombank (TCB):**
+    - NPL ratio edged down to 1.13% (from 1.16%), coverage improved to 1.06x
+    - Asset quality stable despite rapid loan growth; disciplined underwriting
+- **Most deteriorated:**
+  - **MBBank (MBB):**
+    - NPL ratio jumped to 2.5% (from 1.6%), new NPL formation at 1.2% (highest in over a year)
+    - NPL coverage fell to 0.80x (well below sector/historical levels)
+    - Indicates rising credit risk and limited loss absorption capacity
+---
+**Insufficient data available** for some smaller banks in certain categories, but the above highlights capture the most significant sector-wide and bank-specific changes for 1Q24.</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>27</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45874.72405384631</v>
+        <v>45874.73028045712</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -530,43 +571,80 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>## 1. KEY CHANGES SUMMARY
-- **Overall Banking Sector Performance and Market Conditions:**
-  - The Vietnamese banking sector in 2Q24 showed a mixed performance with a general trend of strong loan growth across many banks, indicating robust credit demand.
-  - Net interest margins (NIMs) were under pressure for several banks due to competitive pricing and declining loan yields, although some banks managed to stabilize or improve their margins.
-  - Asset quality was a concern for many banks, with rising non-performing loans (NPLs) and group 2 loans, though some banks showed improvements in coverage ratios.
-- **Common Themes and Patterns Across Different Bank Types:**
-  - State-Owned Commercial Banks (SOCBs) like BID and VCB showed strong loan growth but faced challenges with profitability due to margin compression.
-  - Private banks exhibited varied performance: some like MBB and VPB showed strong profitability and loan growth, while others like OCB and VIB faced profitability pressures and asset quality concerns.
-  - Smaller banks (Private_3) generally displayed significant volatility, with some like KLB and NAB showing strong rebounds in profitability and asset quality improvements, while others like NVB faced severe asset quality deterioration.
+**Overall Banking Sector Performance &amp; Market Conditions**
+- **Profitability Rebound, but Uneven:** Most banks posted a sharp sequential rebound in profitability in 2Q24, driven by strong loan growth, margin recovery at select banks, and lower provision expenses. However, topline and bottom-line momentum is uneven, with some banks (e.g., OCB, VIB, BAB) reporting profit declines due to margin compression and rising provisions.
+- **Loan Growth Accelerates:** Sector-wide loan growth accelerated in 2Q24, with several banks (MBB, NAB, KLB, VBB, NVB) outpacing sector averages. This reflects improved credit demand and a more aggressive risk appetite after a subdued 1Q24.
+- **NIM Under Pressure, but Some Recovery:** Net interest margins (NIMs) remain under pressure sector-wide due to falling loan yields and competitive pricing. However, a few banks (MBB, TCB, SSB, KLB) bucked the trend with notable NIM recovery, often due to improved funding costs or asset mix.
+- **Asset Quality Divergence:** Asset quality trends are mixed. Several banks (MBB, NAB, KLB, TCB) showed improvement in NPL and group 2 ratios, while others (NVB, BAB, VPB, VIB, PGB) reported significant deterioration, with rising NPLs and declining coverage ratios.
+- **Provisioning Trends:** Provision expenses generally normalized or fell at most banks, supporting profit recovery. However, some banks (OCB, PGB, VIB, VPB) saw sharp spikes in provisions due to rising credit costs.
+**Common Themes &amp; Patterns Across Bank Types**
+- **Private Banks:** Outperformed on loan growth and, in many cases, profitability (MBB, TCB, SSB, KLB, NAB). However, asset quality is bifurcated—some (MBB, KLB, NAB) improved, while others (VPB, VIB, NVB) saw sharp deterioration.
+- **State-Owned Banks (SOCBs):** Generally lagged in NIM and ROE (BID, CTG), but showed robust loan growth (VCB, BID). Asset quality at SOCBs is stable or improving (VCB), but coverage ratios are often higher than private peers.
+- **Smaller/“Group 3” Banks:** Highly volatile results. Some (KLB, BVB, VBB, ABB) posted strong rebounds in growth, margin, and asset quality, while others (NVB, BAB) are facing severe asset quality and profitability challenges.
+- **Margin Compression is Widespread:** Most banks are facing ongoing NIM pressure from falling loan yields, with only a handful managing to expand margins through funding cost optimization or asset mix changes.
+- **Credit Risk is the Key Swing Factor:** Asset quality divergence is the most important theme—banks with improving NPLs and coverage are outperforming, while those with rising NPLs and falling coverage are underperforming.
+---
 ## 2. SENTIMENT ANALYSIS &amp; NOTABLE BANKS
-- **Overall Sector Sentiment:**
-  - The overall sentiment for the sector is mixed. While there is optimism due to strong loan growth, concerns about asset quality and margin pressures temper the outlook.
-- **Banks with Most Positive Developments:**
-  - **MBB (Private_1):** Delivered a strong rebound with significant improvements in profitability, NIM recovery, and asset quality, marking a positive surprise.
-  - **KLB (Private_3):** Showed robust growth in TOI and net profit, with improved asset quality and NIM, positioning it as a sector outperformer.
-  - **NAB (Private_3):** Demonstrated strong topline and profit growth, with improving asset quality metrics, marking a positive surprise.
-- **Banks with Most Concerning Issues:**
-  - **NVB (Private_3):** Despite a profit rebound, faced severe asset quality deterioration with a high NPL ratio and weak coverage, signaling significant credit risk.
-  - **VIB (Private_2):** Experienced a sharp drop in profitability due to margin compression and rising provisions, with fragile asset quality.
-  - **OCB (Private_2):** Saw a notable decline in profitability with rising provisions and stalling loan growth, alongside deteriorating asset quality.
+**Overall Sector Sentiment**
+- **Cautiously Positive, but Diverging:** The sector tone is cautiously positive, with many banks rebounding in growth and profitability. However, sentiment is tempered by persistent margin compression and rising asset quality risks at several banks. The sector is bifurcating between “winners” (growth + risk control) and “laggards” (margin/credit stress).
+**Banks with Most Positive Developments**
+- **MBB:** Standout rebound in profitability (+31.7% QoQ PBT), double-digit loan growth (+9.9% QoQ), NIM recovery (4.6%), and sharp asset quality improvement (NPL down to 1.6%, coverage up to 1.02x).
+- **TCB:** Consistent sector-leading topline growth (+9.4% QoQ TOI, +43.9% YoY), NIM expansion (4.7%), and robust asset quality (NPL 1.2%, high coverage 1.01x).
+- **KLB:** Surging profitability (+57.9% QoQ PBT), strong loan growth (+6.5% QoQ), NIM jump (4.5%), and improved asset quality (NPL down to 2.0%, coverage up to 69.8%).
+- **NAB:** Strong topline (+17.5% QoQ TOI), loan growth (+6.6% QoQ), NIM recovery (4.1%), and broad asset quality improvement (NPL down to 2.6%, coverage up to 47.2%).
+- **SSB:** Standout profit growth (+15% QoQ PBT, +83% YoY), NIM at multi-year high (4.2%), and stable asset quality (NPL down to 1.91%).
+**Banks with Most Concerning Issues**
+- **NVB:** Severe asset quality deterioration (NPL up to 35.3%, coverage down to 5.1%), despite profit rebound. Aggressive loan growth (+10% QoQ) is driving risk, not sustainable returns.
+- **BAB:** Profitability collapse (-39.9% QoQ PBT), asset quality deterioration (NPL up to 1.48%, coverage down to 0.86x), and stalling topline.
+- **VPB:** Despite strong profit rebound, asset quality is under pressure (NPL up to 5.1%, coverage down to 48.1%), with new NPL formation spiking.
+- **VIB:** Profit and margin decline (PBT -15.9% QoQ, NIM down to 3.8%), rising NPLs (3.7%), and coverage erosion (48.1%).
+- **OCB:** Profitability down sharply (-26% QoQ PBT), surging provisions, and early signs of asset quality deterioration (NPL up to 3.1%, coverage slipping).
+- **PGB:** Profitability softened (-18% QoQ PBT), NPLs rising (3.53%), and coverage below historical norms (31.1%).
+---
 ## 3. SIGNIFICANT BANK CHANGES BY TOPIC
-- **Net Interest Margin (NIM) &amp; Profitability:**
-  - **Most Improved:** MBB (Private_1) - Achieved a strong rebound in NIM to 4.6% from 4.0%, driven by improved funding costs and asset mix, alongside a significant increase in profitability.
-  - **Most Concerning:** VIB (Private_2) - NIM fell to a multi-year low of 3.8% from 4.3%, with profitability under pressure from rising provisions and weaker core revenue.
-- **Credit Growth &amp; Lending:**
-  - **Strongest Growth:** NAB (Private_3) - Loan growth accelerated to 6.6% QoQ, pushing YTD expansion to 10.6%, well ahead of the sector pace.
-  - **Weakest/Declining:** OCB (Private_2) - Loan growth slowed sharply to 1.0% QoQ, indicating a loss of momentum compared to the previous quarter.
-- **Asset Quality &amp; Risk Management:**
-  - **Most Improved:** KLB (Private_3) - NPL ratio fell to 2.0% from 2.5%, with improved coverage ratios, indicating effective risk management.
-  - **Most Deteriorated:** NVB (Private_3) - NPL ratio spiked to 35.3% from 28.9%, with coverage ratios falling to new lows, flagging significant credit risk.
-- **Insufficient Data Available:** None. All categories have sufficient data for analysis.</t>
+### Net Interest Margin (NIM) &amp; Profitability
+- **Most Improved:**
+    - **MBB:** NIM rebounded from 4.0% to 4.6% (after a year-long compression), PBT up 31.7% QoQ, ROA/ROE now above sector averages. Driven by both margin recovery and strong topline growth.
+    - **KLB:** NIM surged from 3.1% to 4.5%, PBT up 57.9% QoQ, ROA/ROE at multi-year highs. Margin expansion despite slight dip in loan yields, indicating improved funding cost management.
+    - **SSB:** NIM jumped a full percentage point QoQ to 4.2% (multi-year high), with TOI up 22.1% QoQ and PBT up 15% QoQ.
+- **Most Concerning:**
+    - **VIB:** NIM fell to a multi-year low (3.8% from 4.3%), PBT down 15.9% QoQ, ROA/ROE at lowest levels in over a year. Margin squeeze and rising provisions are eroding profitability.
+    - **BAB:** Despite NIM improvement (2.5%), profit collapsed (-39.9% QoQ PBT), and margin gains are not translating into earnings due to weak core income and asset quality stress.
+    - **OCB:** NIM edged up (3.5%), but profit dropped sharply (-26% QoQ PBT) due to surging provisions and stalling loan growth.
+---
+### Credit Growth &amp; Lending
+- **Strongest Growth:**
+    - **NVB:** Loan growth +10.0% QoQ, YTD +16.2%, far outpacing sector, though at the cost of asset quality.
+    - **MBB:** Loan growth +9.9% QoQ, YTD +10.5%, supporting topline and profit recovery.
+    - **VBB:** Loan growth +9.1% QoQ, YTD +10.0%, with strong margin recovery.
+    - **NAB:** Loan growth +6.6% QoQ, YTD +10.6%, double sector pace, supporting profit and margin rebound.
+    - **KLB:** Loan growth +6.5% QoQ, YoY +19.1%, sector-leading expansion.
+- **Weakest/Declining:**
+    - **BAB:** Loan growth only +1.5% QoQ, still trailing sector at 5.9%, and topline is essentially flat.
+    - **OCB:** Loan growth stalled at +1.0% QoQ (down from +4.5% in 1Q24), with momentum fading and topline flat.
+    - **SGB:** Loan growth +2.9% QoQ, but YTD only +1.7%, well below sector averages.
+---
+### Asset Quality &amp; Risk Management
+- **Most Improved:**
+    - **MBB:** NPL ratio dropped from 2.5% to 1.6%, group 2 loans declined, NPL coverage rebuilt to 1.02x, reversing prior deterioration.
+    - **KLB:** NPL fell to 2.0% from 2.5%, group 2 loans down, coverage up to 69.8%, net recoveries in NPL and group 2 formation.
+    - **NAB:** NPL down to 2.6% from 2.7%, group 2 loans down to 2.7%, coverage up to 47.2%, NPL formation at lowest in a year.
+    - **TCB:** NPL stable at 1.2%, group 2 loans improved, coverage robust at 1.01x, asset quality remains a sector bright spot.
+- **Most Deteriorated:**
+    - **NVB:** NPL ratio spiked to 35.3% (from 28.9%), NPL formation at 10%, coverage down to 5.1%—severe credit risk escalation.
+    - **BAB:** NPL up to 1.48% (from 1.11%), group 2 formation spiked, coverage at multi-year low (0.86x).
+    - **VPB:** NPL up to 5.1% (from 4.8%), new NPL formation at 2.0%, coverage slipped to 48.1%.
+    - **VIB:** NPL up to 3.7%, coverage down to 48.1%, persistent NPL formation.
+    - **PGB:** NPL up to 3.53% (from 2.93%), NPL formation at six-quarter high, coverage stable but below norms (31.1%).
+---
+**If you need further breakdowns by bank group or additional topics, please specify.**</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>27</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45874.72379449273</v>
+        <v>45874.73002014709</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -583,40 +661,85 @@
       <c r="B4" t="inlineStr">
         <is>
           <t>## 1. KEY CHANGES SUMMARY
-- **Overall Banking Sector Performance and Market Conditions:**
-  - The Vietnamese banking sector in 3Q24 experienced mixed performance, with a general trend of slowing loan growth and profitability across many banks.
-  - Net Interest Margins (NIMs) compressed across the board, indicating persistent pressure on loan yields and competitive lending environments.
-  - Asset quality showed varied trends, with some banks improving coverage ratios while others faced rising Non-Performing Loans (NPLs).
-- **Common Themes and Patterns Across Different Bank Types:**
-  - **State-Owned Commercial Banks (SOCBs):** Generally faced profitability pressures with declining ROA and ROE, but some like VCB managed to improve profitability through reduced provisioning.
-  - **Private Banks:** Showed a mix of strong loan growth (e.g., TPB, VBB) and profitability challenges due to margin compression.
-  - **Smaller/Regional Banks:** Displayed significant volatility in profitability and asset quality, with some banks like ABB and NVB facing sharp reversals in earnings.
+**Overall Banking Sector Performance &amp; Market Conditions**
+- **Profitability under pressure:** Most banks reported sequential declines in profitability (PBT/ROA/ROE), mainly due to margin compression, weaker topline growth, and/or higher provision expenses.
+- **Net Interest Margin (NIM) compression:** Widespread NIM contraction across the sector, driven by falling loan yields and competitive lending, despite some banks managing to stabilize or slightly improve margins.
+- **Loan growth remains robust but uneven:** Several banks (e.g., TCB, TPB, VIB, BVB) posted strong QoQ loan growth, but a number of others saw deceleration or stalling (e.g., ACB, LPB, NVB, SGB, PGB).
+- **Asset quality mixed:** Some banks reported improvement in NPL and group 2 ratios (e.g., STB, SSB, VAB, VBB), while others saw sharp deterioration (e.g., OCB, BVB, SGB, MBB).
+- **Provisioning trends diverge:** Many banks saw a spike in provision expenses (OCB, SGB, SSB, ABB), while others benefited from sharply lower provisions (VCB, BAB, VPB), directly impacting profitability swings.
+- **Private vs. SOCB divergence:** Private banks generally exhibited stronger loan growth and topline momentum but faced more volatility in profitability and asset quality. SOCBs (e.g., VCB, BID, CTG) maintained steadier asset quality and coverage but struggled with margin and topline growth.
+**Common Themes &amp; Patterns**
+- **Margin squeeze is sector-wide:** NIM compression is the dominant theme, with only a few exceptions (e.g., STB, SSB, HDB).
+- **Profitability volatility:** Earnings swings are pronounced, with some banks (ABB, NVB, SGB) swinging to losses or sharp profit declines, while others (VPB, BAB, VBB) rebounded on lower provisions or topline recovery.
+- **Asset quality bifurcation:** Clear split between banks proactively building coverage and improving NPLs (STB, SSB, VAB, VBB) versus those with rising NPLs and falling coverage (OCB, BVB, MBB, SGB).
+- **Loan growth as a double-edged sword:** Banks with fastest loan growth (TPB, VIB, BVB, TCB) often face rising asset quality risk and margin compression, highlighting the trade-off between growth and risk control.
+---
 ## 2. SENTIMENT ANALYSIS &amp; NOTABLE BANKS
-- **Overall Sector Sentiment:** Neutral to Negative
-  - The sector sentiment leans towards negative due to widespread margin compression and asset quality concerns, despite some pockets of strong loan growth.
-- **Banks with Most Positive Developments:**
-  - **VBB:** Demonstrated strong profitability and topline growth, with robust loan growth and stable NIM, marking it as a sector outperformer.
-  - **VPB:** Achieved a strong profitability beat with improved asset quality and reduced provision expenses, signaling effective risk management.
-- **Banks with Most Concerning Issues:**
-  - **ABB:** Faced a sharp reversal in profitability with net losses, driven by collapsing core income and rising provision expenses.
-  - **NVB:** Showed a significant decline in profitability with net losses, despite some improvements in asset quality metrics.
+**Overall Sector Sentiment**
+- **Neutral to slightly negative:** The tone is cautious, with concerns over margin compression, profitability pressure, and rising credit risk outweighing isolated positive surprises. Earnings volatility and asset quality divergence are key concerns.
+**Banks with Most Positive Developments**
+- **VBB:** Standout positive surprise with accelerating profitability (PBT +21.6% QoQ, +625.6% YoY), robust topline, stable NIM, and improving asset quality/coverage.
+- **STB:** Maintained steady profit growth, margin stability (NIM up), and improved coverage, signaling prudent risk management.
+- **VPB:** Strong profitability rebound (PBT +15.5% QoQ, +66.4% YoY), improved asset quality (NPL and group 2 down), and coverage rebuilding.
+- **BAB:** Significant profit turnaround (PBT +33.4% QoQ, +151.8% YoY), improved asset quality, and lower provisions.
+- **TCB:** Strong loan growth (5.7% QoQ, 20.6% YTD), stable asset quality, and high coverage, though margin pressure is noted.
+**Banks with Most Concerning Issues**
+- **OCB:** Severe profit collapse (PBT -51% QoQ, -67.5% YoY), surging provisions, rising NPLs, and weak coverage.
+- **ABB:** Sharp swing to net loss (PBT -VND 343bn), topline collapse, and negative returns, despite asset quality improvement.
+- **BVB:** Profitability sharply reversed (PBT -65% QoQ), NPLs spiked to 4.7%, and coverage weakened to 32.7%.
+- **SGB:** Profitability plunged (PBT -52.3% QoQ), NPLs and new formation up, coverage fell, signaling rising credit stress.
+- **NVB:** Returned to net loss, loan growth stalled, and coverage remains critically thin at 5.8%.
+- **MBB:** Despite strong loan growth, asset quality deteriorated (NPL up to 2.2%, coverage down to 68.8%), and profitability softened.
+---
 ## 3. SIGNIFICANT BANK CHANGES BY TOPIC
-- **Net Interest Margin (NIM) &amp; Profitability:**
-  - **Most Improved:** VBB - Achieved a strong rebound in core earnings with stable NIM at multi-year highs, supported by disciplined pricing and favorable asset mix.
-  - **Most Concerning:** ABB - Experienced a sharp decline in profitability with NIM compressing to 1.9% from 2.2%, reflecting weaker asset yields and topline collapse.
-- **Credit Growth &amp; Lending:**
-  - **Strongest Growth:** TPB - Delivered standout loan growth of 10.0% QoQ, significantly outpacing the sector, indicating aggressive market share capture.
-  - **Weakest/Declining:** NVB - Loan growth stalled at 0.3% QoQ, well below sector averages, after a strong 2Q24, signaling a loss of growth momentum.
-- **Asset Quality &amp; Risk Management:**
-  - **Most Improved:** VAB - Showed sharp improvements in asset quality with NPL ratio dropping to 1.7% and coverage ratios hitting multi-year highs.
-  - **Most Deteriorated:** BVB - NPL ratio spiked to 4.7%, with coverage falling to 32.7%, indicating increased exposure to credit losses and deteriorating risk profile.</t>
+### Net Interest Margin (NIM) &amp; Profitability
+- **Most improved:**
+  - **VBB:** Delivered strong profit growth (PBT +21.6% QoQ, +625.6% YoY), stable NIM at multi-year highs (2.36%), and robust topline expansion.
+  - **VPB:** Profitability rebounded sharply (PBT +15.5% QoQ), with NIM still high at 5.8% despite some compression.
+  - **BAB:** PBT up 33.4% QoQ, NIM compressed but earnings rebounded on lower provisions.
+- **Most concerning:**
+  - **OCB:** PBT plunged 51% QoQ (and 67.5% YoY), driven by surging provisions and flat topline; NIM edged down to 3.4%.
+  - **ABB:** Swung to net loss (PBT -VND 343bn), TOI down 46.1% QoQ, NIM compressed to 1.9%.
+  - **BVB:** PBT fell 65% QoQ, NIM dropped to 2.33%, and topline momentum stalled.
+  - **SGB:** PBT down 52.3% QoQ, despite topline growth; NIM only modestly improved, but not enough to offset risk costs.
+  - **NVB:** Returned to net loss, NIM softened to 1.24%, and core income weakened.
+### Credit Growth &amp; Lending
+- **Strongest growth:**
+  - **TPB:** Loan growth surged 10.0% QoQ, 14.3% YTD—the fastest in the sector.
+  - **VIB:** Loan growth accelerated to 6.6% QoQ, 11.5% YTD.
+  - **BVB:** Loan book expanded 7.5% QoQ, 10.8% YTD.
+  - **TCB:** Loan growth at 5.7% QoQ, 20.6% YTD—leading among large banks.
+  - **SSB:** Loan growth 5.8% QoQ, 9.7% YTD.
+  - **VAB:** Loan growth 4.8% QoQ, 11.7% YTD.
+- **Weakest/declining:**
+  - **ACB:** Loan growth slowed sharply to 0.81% QoQ from 8.7% in 2Q24.
+  - **LPB:** Loan growth decelerated to 0.6% QoQ from 3.1% prior.
+  - **NVB:** Loan growth nearly stalled at 0.3% QoQ after a strong 2Q24.
+  - **SGB:** Loan growth flat at 0.5% QoQ, YTD only 2.1%.
+  - **PGB:** Loan growth up just 0.5% QoQ, lagging sector peers.
+### Asset Quality &amp; Risk Management
+- **Most improved:**
+  - **VAB:** NPL ratio dropped to 1.7% (from 2.5%), coverage surged to 70.3% (multi-year high), and both NPL/G2 formation turned negative.
+  - **STB:** NPL coverage climbed to 75% (highest in over a year), NPL formation slowed, and asset quality remained stable.
+  - **SSB:** NPL and group 2 ratios improved, coverage rebounded to 80.8%.
+  - **VBB:** NPL ratio edged down, coverage strengthened to 37.7%, and asset quality improved.
+  - **BAB:** NPL and group 2 ratios declined, formation negative, and coverage rebounded to 97.7%.
+- **Most deteriorated:**
+  - **OCB:** NPL ratio up to 3.2%, new NPL formation at 0.7% (highest in over a year), group 2 loans doubled, and coverage fell to 53.9%.
+  - **BVB:** NPL ratio jumped to 4.7%, coverage dropped to 32.7%, and new NPL formation spiked.
+  - **SGB:** NPL ratio climbed to 2.85%, new NPL formation accelerated, and coverage fell to 33.5%.
+  - **MBB:** NPL ratio rose to 2.2% (from 1.6%), group 2 up, and coverage fell sharply to 68.8%.
+  - **VIB:** NPL ratio up to 3.9%, NPL formation increased, and coverage dropped to 47.1%.
+  - **NVB:** Coverage remains critically low at 5.8%, despite headline NPL improvement.
+---
+**If further breakdown or bank-specific deep dives are needed, please specify.**</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>27</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45874.72324559735</v>
+        <v>45874.72933731376</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -633,49 +756,83 @@
       <c r="B5" t="inlineStr">
         <is>
           <t>## 1. KEY CHANGES SUMMARY
-- **Overall Banking Sector Performance and Market Conditions:**
-  - The Vietnamese banking sector in 4Q24 showed mixed performance with strong loan growth across many banks, but profitability was often constrained by margin compression and elevated provision expenses.
-  - Asset quality trends were generally positive, with many banks reporting improvements in NPL ratios and coverage, although some banks faced significant challenges.
-- **Common Themes and Patterns Across Different Bank Types:**
-  - **State-Owned Commercial Banks (SOCBs):** Generally showed robust loan growth and improved asset quality, but profitability was often pressured by margin compression.
-  - **Private Banks:** Displayed varied performance with some achieving strong profitability and asset quality improvements, while others struggled with margin pressure and rising provision expenses.
-  - **Smaller/Regional Banks:** Demonstrated significant volatility, with some experiencing sharp rebounds in profitability and asset quality, while others faced severe challenges in core income and risk management.
+**Overall Banking Sector Performance &amp; Market Conditions**
+- **Strong 4Q24 rebound:** Most banks reported a sharp sequential recovery in topline growth (TOI) and profitability after a weak mid-year, driven by loan growth acceleration and lower provision expenses.
+- **Loan growth re-accelerated:** Sector-wide loan growth picked up in 4Q24, with several banks (e.g., MBB, VPB, TPB, BVB, PGB) posting double-digit QoQ expansion, outpacing the sector average.
+- **Margin pressure persists:** Net interest margin (NIM) compression was a common theme, with most banks reporting lower NIMs due to falling loan yields, competitive pricing, and asset mix shifts, despite some outliers showing margin recovery.
+- **Asset quality mixed but improving:** Many banks saw improvement in NPL and group 2 ratios, with negative formation rates and higher coverage, but a few (e.g., SHB, ABB, SGB) reported renewed credit stress.
+- **Provisioning trends diverged:** Several banks’ profit beats were driven by sharp drops or reversals in provision expenses (e.g., STB, TCB, BAB), while others saw provision spikes (e.g., SHB, VBB, SGB) that capped earnings.
+- **Profitability dispersion:** ROA/ROE improved for most, but some banks (NVB, SGB) reported severe losses, while others (MBB, VPB, CTG, STB) hit multi-year highs.
+**Common Themes &amp; Patterns Across Bank Types**
+- **State-owned (SOCB):** Generally stable with improved asset quality (VCB, CTG), but margin compression and flat profit growth (VCB, BID).
+- **Large private banks (Private_1):** Volatile, with some (MBB, VPB, STB) showing strong rebounds in profit and asset quality, while others (TCB) saw sharp earnings reversals.
+- **Mid-tier private banks (Private_2):** Mixed; several (MSB, OCB, TPB) posted strong profit and asset quality recoveries, but margin pressure and provision volatility persist.
+- **Small/private_3 banks:** Highly dispersed; some (BVB, BAB, KLB) delivered positive surprises on growth and asset quality, while others (NVB, SGB) faced severe profitability and risk challenges.
+---
 ## 2. SENTIMENT ANALYSIS &amp; NOTABLE BANKS
-- **Overall Sector Sentiment:** Neutral to slightly positive. While there are positive developments in loan growth and asset quality, margin compression and profitability pressures persist.
-- **Banks with Most Positive Developments:**
-  - **MBB:** Strong rebound in profitability and asset quality, with significant loan growth and improved risk discipline.
-  - **VPB:** Notable surge in net profit and topline growth, driven by loan expansion and margin recovery.
-  - **BVB:** Record-high ROA/ROE and improved asset quality, reflecting effective balance sheet management.
-- **Banks with Most Concerning Issues:**
-  - **NVB:** Severe deterioration in profitability and margins, with technical improvements in asset quality masking underlying risks.
-  - **SGB:** Sharp drop in profitability and margin compression, with rising asset quality risks.
-  - **ABB:** Despite a rebound in profitability, asset quality metrics showed renewed stress with rising NPLs and group 2 loans.
+**Overall Sector Sentiment**
+- **Positive to cautiously optimistic:** The majority of banks reported strong sequential recoveries in profit, loan growth, and asset quality, supporting a constructive sector outlook. However, persistent NIM compression and isolated cases of severe stress temper the optimism.
+**Banks with Most Positive Developments**
+- **MBB:** Standout performance with TOI +30.4% QoQ, loan growth +10.7% QoQ, ROA/ROE at sector highs, and marked asset quality improvement (NPL ratio down to 1.6%).
+- **VPB:** Strongest topline and profit growth (+17.1% TOI, +18.6% PBT QoQ), NIM recovery to 6.0%, and improved asset quality (NPL down to 4.2%, coverage up).
+- **BVB:** Record profit growth (TOI +48.2% QoQ, PBT up &gt;6x), NIM at new high (3.15%), and sharp asset quality improvement (NPL down to 3.1%).
+- **CTG:** PBT up 86.9% QoQ, ROE at 27.1%, robust loan growth (+7.4% QoQ), and improved NPL coverage (174.7%).
+- **MSB:** TOI +45% QoQ, NIM up to 4.2%, asset quality and coverage at multi-quarter highs.
+- **TPB:** TOI +28.2% QoQ, NPL coverage at multi-year high (81.3%), and strong loan growth (+6.8% QoQ).
+- **NAB:** Consistent profitability, robust asset quality improvement (NPL down to 2.3%, coverage up to 52.8%).
+**Banks with Most Concerning Issues**
+- **NVB:** Severe profitability collapse (TOI loss, PBT -VND 5.07tn, ROA -17.8%), NIM and loan yield deeply negative, asset quality “improved” only due to technical factors, coverage extremely weak.
+- **SGB:** Profitability unraveled (TOI -59.8% QoQ, negative PBT), NIM collapsed to 0.7%, asset quality risks rising (spike in new NPL and group 2 formation).
+- **ABB:** Despite profit rebound, loan growth stalled and asset quality deteriorated (NPL up to 3.7%, coverage down).
+- **SHB:** Topline and loan growth strong, but asset quality deteriorated (NPL up to 2.9%, coverage slipped), provision spike capped profit.
+- **TCB:** Sharp reversal in profitability (TOI -18.7% QoQ, PBT -34.9% QoQ), margin compression, profit propped up by provision drop, core income weakness.
+---
 ## 3. SIGNIFICANT BANK CHANGES BY TOPIC
-**Net Interest Margin (NIM) &amp; Profitability:**
-- **Most Improved:** 
-  - **MSB:** Sharp rebound in TOI and net profit, driven by margin recovery to its highest level in over a year.
-- **Most Concerning:** 
-  - **NVB:** NIM swung deeply negative, reflecting severe business stress and unsustainable dynamics.
-**Credit Growth &amp; Lending:**
-- **Strongest Growth:** 
-  - **VPB:** Loan growth accelerated to 9.1% QoQ, pushing full-year expansion to 22.6%, well ahead of the sector.
-- **Weakest/Declining:** 
-  - **ABB:** Loan growth stalled with balances flat QoQ, indicating a slowdown from previous quarters.
-**Asset Quality &amp; Risk Management:**
-- **Most Improved:** 
-  - **BVB:** Significant improvement with NPL and group 2 ratios dropping, and coverage ratios strengthening.
-- **Most Deteriorated:** 
-  - **SGB:** Asset quality risks intensified with a spike in new NPL and group 2 loan formation, signaling rising credit risk.
-**Instructions:**
-- Insufficient data available for specific banks in some categories; focus on those with clear data-driven insights.
-- Maintain a professional tone and ensure clarity in analysis.</t>
+### Net Interest Margin (NIM) &amp; Profitability
+- **Most improved:**
+  - **BVB:** NIM expanded sharply to 3.15% (new high), TOI +48.2% QoQ, PBT up &gt;6x, ROA/ROE at multi-year highs; driven by improved asset yields and balance sheet management.
+  - **MSB:** NIM jumped to 4.2% (from 3.3%), TOI +45% QoQ, PBT +65.2% QoQ, ROA/ROE rebounded strongly.
+  - **MBB:** Maintained high NIM (4.2%), strong profit growth (TOI +30.4% QoQ, PBT +10.7% QoQ), ROA/ROE at sector highs.
+- **Most concerning:**
+  - **NVB:** NIM collapsed to -10.2% (from 1.2%), loan yield -8.3%, ROA/ROE deeply negative, reflecting severe business stress.
+  - **SGB:** NIM collapsed to 0.7% (from 3.3%), TOI plunged 59.8% QoQ, PBT negative, signaling unsustainable margins and profitability.
+  - **TCB:** NIM compressed to 3.8% (from 4.2%), TOI and profit dropped sharply, with margin pressure a key driver.
+---
+### Credit Growth &amp; Lending
+- **Strongest growth:**
+  - **PGB:** Loan growth +11.9% QoQ, +16.7% YoY, triple sector pace, signaling aggressive expansion.
+  - **MBB:** Loan growth +10.7% QoQ, +27.6% YTD, sector-leading.
+  - **NVB:** Loan growth +10.7% QoQ, +28.9% YTD, but at the cost of profitability and asset quality.
+  - **VPB:** Loan growth +9.1% QoQ, +22.6% YTD, driving topline/profit surge.
+  - **SHB:** Loan growth +8.4% QoQ, +19.2% YTD, fastest in years.
+- **Weakest/declining:**
+  - **ABB:** Loan growth stalled (-0.05% QoQ, +0.3% YoY), lagging sector peers.
+  - **VBB:** Loan growth slowed to +1.9% QoQ (vs. 3.2% prior), below sector average.
+  - **TCB:** Loan growth nearly stalled at +0.9% QoQ after strong earlier expansion.
+---
+### Asset Quality &amp; Risk Management
+- **Most improved:**
+  - **MBB:** NPL ratio dropped to 1.6% (from 2.2%), group 2 loans down, negative formation rates, coverage rebounded to 0.92x.
+  - **TPB:** NPL ratio down to 1.5% (from 2.3%), group 2 loans fell, coverage surged to 81.3%.
+  - **BVB:** NPL ratio dropped to 3.1% (from 4.7%), coverage up to 45.3%, negative formation rates.
+  - **NAB:** NPL down to 2.3% (from 2.9%), coverage up to 52.8%, negative formation rates.
+  - **VAB:** NPL down to 1.37% (from 1.70%), group 2 loans down, coverage high at 69.5%.
+  - **BAB:** NPL down to 1.24% (from 1.33%), group 2 loans down, negative formation, coverage stable.
+- **Most deteriorated:**
+  - **NVB:** NPL ratio “improved” to 19.5% (from 30.6%) due to technical factors, but coverage only 8.6%, underlying risk remains high.
+  - **ABB:** NPL up to 3.7% (from 3.2%), group 2 loans up, formation spiked, coverage fell to 46.2%.
+  - **SHB:** NPL up to 2.9% (from 2.5%), new NPL formation spiked to 1.4%, coverage slipped to 58.4%.
+  - **SGB:** New NPL and group 2 formation spiked, group 2 loans doubled to 5.0%, coverage only modestly improved.
+  - **OCB:** NPL formation elevated at 0.78%, coverage slipped to 47.1%, signaling ongoing credit risk.
+---
+**Insufficient data available:** None—comprehensive data provided for all categories.</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>27</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45874.72300310267</v>
+        <v>45874.72890887119</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -692,42 +849,90 @@
       <c r="B6" t="inlineStr">
         <is>
           <t>## 1. KEY CHANGES SUMMARY
-- **Overall Banking Sector Performance and Market Conditions:**
-  - The Vietnamese banking sector in 1Q25 experienced mixed performance, with profitability generally under pressure due to declining net interest margins (NIM) and rising asset quality concerns.
-  - Loan growth showed variability, with some banks aggressively expanding their loan books while others adopted a more cautious approach.
-  - Margin compression was a common theme, driven by competitive pressures and a shift towards lower-yielding assets.
-- **Common Themes and Patterns Across Different Bank Types:**
-  - State-owned commercial banks (SOCBs) like BID and CTG faced significant profitability declines due to shrinking total operating income (TOI) and rising provision expenses.
-  - Private banks showed varied performance, with some like MBB maintaining strong profitability through disciplined cost control, while others like OCB faced sharp pullbacks in profitability.
-  - Asset quality deterioration was a widespread concern, with many banks reporting rising non-performing loans (NPLs) and group 2 loans, indicating potential future credit risks.
+**Overall Banking Sector Performance &amp; Market Conditions**
+- **Profitability under pressure:** Most banks reported sequential declines in profitability, with many citing falling total operating income (TOI), margin compression, and rising provision expenses. YoY growth is positive for some, but the sequential trend is negative.
+- **Net interest margin (NIM) compression:** NIMs declined across the majority of banks, driven by falling loan yields, competitive pricing, and rising funding costs. Only a handful of banks managed to stabilize or improve margins.
+- **Loan growth remains robust but uneven:** Several banks posted strong QoQ loan growth (notably in the private sector), but others saw sharp slowdowns or even contractions, reflecting divergent risk appetites and market positioning.
+- **Asset quality risks rising:** NPL and group 2 loan ratios increased at many banks, with new NPL formation rates spiking in several cases. Coverage ratios generally weakened, though a few banks improved buffers.
+- **Provisioning swings drive earnings volatility:** Profitability at many banks was supported by lower provisions, masking underlying weakness in core income and asset quality.
+- **Divergence by bank type:** State-owned commercial banks (SOCBs) generally showed more defensive asset quality but weaker growth and sharper margin compression. Private banks displayed more aggressive loan growth but at the cost of rising credit risk and margin pressure.
+**Common Themes &amp; Patterns**
+- **Margin squeeze is sector-wide:** NIM compression is nearly universal, with only isolated exceptions (e.g., KLB, NAB).
+- **Aggressive loan growth comes with trade-offs:** Banks with the fastest loan growth (e.g., KLB, MSB, SHB, NVB) often saw rising asset quality risks or margin pressure.
+- **Provision-driven profit beats:** Several banks (e.g., SHB, VAB, TPB) reported profit resilience or rebounds due to sharp drops in provisions, not stronger core business.
+- **Asset quality bifurcation:** Some banks (e.g., VCB, SSB, STB) maintained or improved asset quality, while others (e.g., OCB, TPB, VPB, VIB) saw significant deterioration.
+- **Earnings normalization after 4Q24 surge:** Many banks’ 1Q25 results reflect a normalization after a strong 4Q24, with topline and profit retreating to more sustainable levels.
+---
 ## 2. SENTIMENT ANALYSIS &amp; NOTABLE BANKS
-- **Overall Sector Sentiment:**
-  - The overall sentiment for the sector is negative, with many banks facing profitability challenges and rising asset quality concerns.
-- **Banks with Most Positive Developments:**
-  - **SSB:** Delivered a dramatic surge in profitability with record TOI and net profit gains, driven by strong topline growth and reduced provision expenses.
-  - **NVB:** Showed a sharp turnaround with positive profitability and improved asset quality, marking a positive surprise after previous losses.
-- **Banks with Most Concerning Issues:**
-  - **OCB:** Experienced a sharp pullback in profitability with significant TOI and net profit declines, coupled with deteriorating asset quality.
-  - **TPB:** Profitability increasingly reliant on low provisions, with core income and asset quality trends turning negative.
-  - **VIB:** Faced sustained pressure on core revenue with margin compression and rising asset quality stress.
+**Overall Sector Sentiment:**  
+- **Neutral-to-Negative:** The tone is cautious, with more negative surprises than positive. Margin compression, asset quality slippage, and profit normalization dominate, though some banks delivered positive surprises on specific metrics.
+**Banks with Most Positive Developments**
+- **SSB:**  
+  - Record profit growth (PBT up 184% QoQ, 189% YoY), sector-leading ROA (4.2%) and ROE (38.0%).
+  - Asset quality robust: NPL ratio down, coverage at 81.8%, negative NPL formation.
+  - Positive surprise driven by core income, not just provisions.
+- **KLB:**  
+  - Standout loan growth (+10.7% QoQ), strong topline (+47% YoY), resilient profitability (ROA 1.2%, ROE 16.9%).
+  - NIM rebounded to 3.9%.
+- **NVB:**  
+  - Sharp turnaround to profitability after prior losses, fastest loan growth (+9.8% QoQ), significant improvement in NPL ratio (1.4% from 2.0%).
+- **STB:**  
+  - Strongest topline growth in over a year, NIM rebounded, loan growth outpaced sector, asset quality manageable with improved coverage.
+- **TCB:**  
+  - Earnings and loan growth rebounded QoQ, asset quality held steady, coverage remains robust.
+**Banks with Most Concerning Issues**
+- **OCB:**  
+  - Profitability reversed (PBT down 38.5% QoQ, 26.5% YoY), NIM at multi-year low (3.2%), NPL ratio spiked to 3.9%, coverage plunged to 35%.
+- **VIB:**  
+  - Flat profit masks 12.8% drop in TOI, NIM compressed to 3.0%, NPL ratio up to 3.8%, coverage at multi-year low (38.6%).
+- **VPB:**  
+  - Profitability softened sharply (PBT down 18.5% QoQ), NPLs and new formation rates jumped (NPL 4.7%, formation 1.7%), coverage weakened.
+- **TPB:**  
+  - Asset quality flagged: NPL ratio up to 2.27%, new NPL formation 0.94%, coverage fell to 57.1%.
+- **BID, CTG (SOCBs):**  
+  - Both saw sharp profitability drops, NIM at multi-year lows, NPL formation at highest in years, coverage ratios falling.
+- **SGB:**  
+  - Despite profit rebound, loan book contracted, NPLs and group 2 loans climbed, coverage dropped to 31.6%.
+---
 ## 3. SIGNIFICANT BANK CHANGES BY TOPIC
-- **Net Interest Margin (NIM) &amp; Profitability:**
-  - **Most Improved:** SSB - Achieved a record surge in profitability with TOI up 80.8% QoQ and PBT up 184.1% QoQ, despite NIM compression.
-  - **Most Concerning:** OCB - Significant decline in profitability with TOI down 29.4% QoQ and PBT down 38.5% QoQ, driven by margin pressure and rising risk costs.
-- **Credit Growth &amp; Lending:**
-  - **Strongest Growth:** NAB - Accelerated loan growth to 6.0% QoQ, well ahead of the sector, driven by aggressive balance sheet expansion.
-  - **Weakest/Declining:** ABB - Loan growth slipped into negative territory QoQ, reflecting a cautious lending stance or softer demand.
-- **Asset Quality &amp; Risk Management:**
-  - **Most Improved:** NVB - Significant improvement in asset quality with NPL ratio dropping to 1.4% and coverage rising to 11.2%.
-  - **Most Deteriorated:** OCB - Asset quality deteriorated with NPL ratio jumping to 3.9% and coverage ratios plunging, indicating rising credit risk.
-- **Insufficient data available** for some categories where specific quantitative insights were not provided in the comments.</t>
+### Net Interest Margin (NIM) &amp; Profitability
+- **Most improved:**  
+  - **SSB** – Delivered a dramatic surge in profitability (PBT up 184% QoQ, 189% YoY), sector-leading ROA/ROE, driven by core income growth and lower provisions. Asset quality stable, coverage robust.
+  - **KLB** – NIM rebounded to 3.9% (from 3.8%), strong topline and profit growth, ROA/ROE well above sector.
+- **Most concerning:**  
+  - **OCB** – NIM fell to multi-year low (3.2%), TOI and PBT sharply down, margin pressure and provision normalization led to a negative profit surprise.
+  - **VIB** – NIM compressed to 3.0% (from 3.5%), TOI down 12.8% QoQ, profit flat due to provision cuts, not core improvement.
+### Credit Growth &amp; Lending
+- **Strongest growth:**  
+  - **KLB** – Loan growth surged 10.7% QoQ, 18.2% YoY, far outpacing sector.
+  - **NVB** – Loan growth accelerated to 9.8% QoQ, 34.1% YoY, fastest in over a year.
+  - **MSB, SHB, PGB** – All posted &gt;9% QoQ loan growth, signaling aggressive expansion.
+- **Weakest/declining:**  
+  - **ABB** – Loan growth negative at -0.7% QoQ and YTD, only bank with contraction.
+  - **SGB** – Loan book contracted 4.3% QoQ, reversing prior quarter’s growth.
+  - **VCB** – Slowest among large banks, just 1.1% QoQ, reflecting caution.
+### Asset Quality &amp; Risk Management
+- **Most improved:**  
+  - **NVB** – NPL ratio dropped to 1.4% (from 2.0%), group 2 loans declined, negative formation rates, coverage improved.
+  - **VAB** – NPL ratio fell to 0.63% (from 1.37%), coverage surged to 150.2%, though group 2 loans spiked (latent risk).
+  - **SSB** – NPL and group 2 ratios stable-to-improving, negative formation, coverage at 81.8%.
+- **Most deteriorated:**  
+  - **OCB** – NPL ratio jumped to 3.9% (from 3.2%), new NPL formation 1.2%, coverage plunged to 35%.
+  - **VPB** – NPL ratio up to 4.7%, new NPL formation 1.7%, coverage fell to 47.4%.
+  - **TPB** – NPL ratio up to 2.27% (from 1.52%), new formation 0.94%, coverage dropped to 57.1%.
+  - **SGB** – NPL up to 3.3%, group 2 loans 5.7%, coverage at 31.6%, signaling rising risk.
+---
+**Insufficient data available:** None – all categories are covered with specific bank examples.
+---
+**Summary:**  
+1Q25 is marked by sector-wide NIM compression, profit normalization, and rising asset quality risks. While a few banks (SSB, KLB, NVB) delivered standout growth or profit surprises, the broader trend is one of caution, with aggressive loan growth often coming at the expense of credit quality and margins. Asset quality bifurcation is emerging as a key theme, and investors should closely monitor coverage ratios and new NPL formation in the coming quarters.</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>27</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45874.72278354624</v>
+        <v>45874.72844739901</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -744,39 +949,67 @@
       <c r="B7" t="inlineStr">
         <is>
           <t>## 1. KEY CHANGES SUMMARY
-- **Overall Banking Sector Performance and Market Conditions:**
-  - The Vietnamese banking sector in 2Q25 shows mixed performance, with some banks experiencing strong rebounds in profitability and others facing challenges in asset quality and loan growth.
-  - The market conditions indicate a cautious recovery phase, with banks focusing on managing credit risk and optimizing margins amidst competitive pressures.
-- **Common Themes and Patterns Across Different Bank Types:**
-  - A general trend of improving profitability driven by lower provision expenses and strong topline growth, although not all banks experienced this.
-  - Loan growth varied significantly, with some banks accelerating aggressively while others saw a slowdown or stagnation.
-  - Asset quality improvements were noted in several banks, but some still face rising credit risks and challenges in maintaining NPL coverage ratios.
+- **Overall Banking Sector Performance &amp; Market Conditions**
+  - The sector saw a broad-based improvement in profitability and topline growth in 2Q25, with several banks reporting strong sequential rebounds after a challenging 2024.
+  - Loan growth was generally robust, but momentum diverged: some banks accelerated lending aggressively, while others saw a sharp slowdown or stagnation.
+  - Net interest margins (NIMs) showed mixed trends: some banks managed to stabilize or improve margins, while others continued to face compression due to funding cost pressures and competitive lending.
+  - Asset quality was a key differentiator: while several banks reported improvements in NPL ratios and coverage, others saw deterioration and rising credit risk.
+  - Provision expenses generally trended lower, supporting profit recovery, but coverage ratios remain below sector averages for some banks, highlighting ongoing risk.
+- **Common Themes &amp; Patterns Across Bank Types**
+  - **Private Banks (TCB, VPB, LPB):** Showed strong loan growth and profit recovery, but with varying success in margin management and asset quality stabilization.
+  - **Smaller/Non-listed Banks (KLB, PGB):** Delivered outsized profit rebounds and topline growth, but with more volatility in loan growth and asset quality metrics.
+  - **Sector-wide:** The gap between leaders and laggards is widening, with execution on risk management and margin discipline emerging as key differentiators.
+---
 ## 2. SENTIMENT ANALYSIS &amp; NOTABLE BANKS
-- **Overall Sector Sentiment:**
-  - The overall sentiment for the sector is cautiously positive, with notable improvements in profitability and asset quality for some banks, but concerns remain over loan growth sustainability and margin pressures.
+- **Overall Sector Sentiment:**  
+  - **Positive to Cautiously Optimistic:** Most banks reported strong profit rebounds and topline growth, but concerns linger around margin compression and asset quality for select names.
 - **Banks with Most Positive Developments:**
-  - **KLB:** Showed standout performance with significant profitability gains and improved asset quality, driven by robust topline growth and disciplined cost control.
-  - **VPB:** Demonstrated a sharp rebound in profitability with strong loan growth and improved asset quality, signaling a positive turnaround.
+  - **KLB:**  
+    - Standout profit growth (PBT +58.4% QoQ, +67.2% YoY), record-high ROE (25.7%), and improved asset quality (NPL down to 1.96%, coverage up to 82.8%).
+    - Margin stability and disciplined cost control underpin sustainable performance.
+  - **TCB:**  
+    - Strong sequential rebound in topline and profit, with loan growth (7.0% QoQ) and NIM (3.8%) outpacing peers.
+    - Asset quality remains a bright spot (NPL 1.26%, coverage 1.07x), and risk management is effective.
+  - **VPB:**  
+    - Sharp profit turnaround (PBT +23.9% QoQ, +38.3% YoY), aggressive loan growth (13.8% QoQ), and improving asset quality (NPL down to 4.0%).
 - **Banks with Most Concerning Issues:**
-  - **PGB:** Despite a profit rebound, the bank faces challenges with flat loan growth and deteriorating asset quality, raising concerns over rising credit risks.
-  - **LPB:** Declining profitability metrics and below-average NPL coverage ratio indicate potential risks in asset quality, despite stable NPL ratios.
+  - **PGB:**  
+    - Despite profit rebound, asset quality deteriorated (NPL up to 3.33%, coverage down to 35.6%), and loan growth stalled (flat QoQ).
+    - Rising credit risk and margin pressure threaten future earnings.
+  - **LPB:**  
+    - Profitability metrics declined (ROA 1.9%, ROE 22.1%), loan growth slowed (4.7% QoQ), and NPL coverage remains below sector average (75.3%).
+---
 ## 3. SIGNIFICANT BANK CHANGES BY TOPIC
-- **Net Interest Margin (NIM) &amp; Profitability:**
-  - **Most Improved:** **KLB** - Achieved significant profitability gains with a 58.4% QoQ increase in net profit, driven by strong core income and effective cost management, maintaining NIM stability.
-  - **Most Concerning:** **PGB** - Despite a modest recovery in loan yields, NIM continued to compress, reflecting ongoing funding cost pressure and a less favorable asset mix.
-- **Credit Growth &amp; Lending:**
-  - **Strongest Growth:** **VPB** - Achieved an aggressive 13.8% QoQ loan growth, far outpacing the sector, reflecting a focus on higher-volume segments.
-  - **Weakest/Declining:** **PGB** - Loan growth stalled with a mere 0.1% QoQ increase, significantly lagging behind the sector's 4.2% pace.
-- **Asset Quality &amp; Risk Management:**
-  - **Most Improved:** **KLB** - Notable improvement in asset quality with a decline in NPL ratio to 1.96% and a record-high NPL coverage of 82.8%, indicating effective credit risk management.
-  - **Most Deteriorated:** **PGB** - Asset quality weakened with a rise in NPL ratio to 3.33% and a decline in NPL coverage to 35.6%, signaling mounting credit risk concerns.</t>
+**Net Interest Margin (NIM) &amp; Profitability:**
+- **Most improved:**  
+  - **KLB**  
+    - PBT surged 58.4% QoQ and 67.2% YoY; ROE soared to 25.7% (from 16.9%); NIM held steady at 3.97% despite yield compression, reflecting strong cost control and revenue growth.
+- **Most concerning:**  
+  - **VPB**  
+    - NIM compressed further to 5.3% (down 56bps QoQ) despite aggressive loan growth, indicating margin squeeze from competitive lending and asset mix shifts.
+**Credit Growth &amp; Lending:**
+- **Strongest growth:**  
+  - **VPB**  
+    - Loan book up 13.8% QoQ (vs. sector’s 4.2%), YTD +20.0%, reflecting aggressive expansion and market share gains.
+- **Weakest/declining:**  
+  - **PGB**  
+    - Loan growth stalled at +0.1% QoQ after a strong 1Q25, lagging sector average and signaling loss of momentum.
+**Asset Quality &amp; Risk Management:**
+- **Most improved:**  
+  - **KLB**  
+    - NPL ratio improved to 1.96% (from 2.17%), group 2 loans down, and NPL coverage hit a record 82.8%, well above sector norms.
+- **Most deteriorated:**  
+  - **PGB**  
+    - NPL ratio rose to 3.33% (from 2.71%), group 2 loans remained elevated, and NPL coverage fell to 35.6%, signaling rising credit risk and insufficient provisioning.
+---
+**Insufficient data available:** None – all categories are supported by the provided comments.</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45874.72259167281</v>
+        <v>45874.7281120373</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>

--- a/Data/quarterly_analysis_results.xlsx
+++ b/Data/quarterly_analysis_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,7 +554,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45874.73028045712</v>
+        <v>45874.73028045139</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -644,7 +644,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45874.73002014709</v>
+        <v>45874.73002015046</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45874.72933731376</v>
+        <v>45874.72933731481</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45874.72890887119</v>
+        <v>45874.72890886574</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45874.72844739901</v>
+        <v>45874.72844739584</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1009,9 +1009,60 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45874.7281120373</v>
+        <v>45874.72811203704</v>
       </c>
       <c r="E7" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2Q25</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>## 1. KEY CHANGES SUMMARY
+- **Overall Banking Sector Performance and Market Conditions:**
+  - The Vietnamese banking sector in 2Q25 showed mixed performance, with a general trend of profitability recovery driven by strong loan growth, although net interest margins (NIM) remained under pressure.
+  - Asset quality showed signs of improvement in several banks, but some banks still faced rising non-performing loans (NPLs) and lower coverage ratios.
+  - Provision expenses varied significantly, with some banks experiencing spikes due to deteriorating asset quality, while others benefited from reduced credit costs.
+- **Common Themes and Patterns Across Different Bank Types:**
+  - **Private Banks:** Generally exhibited strong loan growth and profitability recovery, but faced NIM compression due to competitive lending and funding cost pressures.
+  - **State-Owned Commercial Banks (SOCBs):** Showed mixed results with some banks like BID facing deteriorating asset quality, while others like VCB maintained robust asset quality.
+  - **Smaller Private Banks:** Displayed significant variability in performance, with some like ABB showing strong rebounds in profitability and asset quality, while others like BVB faced sharp deterioration in asset quality and profitability.
+## 2. SENTIMENT ANALYSIS &amp; NOTABLE BANKS
+- **Overall Sector Sentiment:** Neutral to slightly positive, with strong loan growth and profitability recovery offset by ongoing margin pressures and mixed asset quality trends.
+- **Banks with Most Positive Developments:**
+  - **ABB:** Delivered a significant turnaround in profitability with a 202.3% QoQ increase in net profit, driven by robust loan growth and improved asset quality.
+  - **SHB:** Showed a strong earnings recovery with a 70.3% QoQ increase in TOI and improved asset quality metrics.
+  - **NVB:** Demonstrated a clear inflection in business momentum with a 51.0% QoQ surge in TOI and significant improvements in asset quality.
+- **Banks with Most Concerning Issues:**
+  - **BVB:** Experienced a sharp decline in profitability with an 83.5% QoQ drop in pre-tax profit, driven by rising credit costs and deteriorating asset quality.
+  - **NAB:** Faced rising NPLs and a notable drop in coverage, signaling potential future risk costs despite strong loan growth.
+  - **SGB:** Continued to struggle with asset quality pressures and contracting loan growth, indicating persistent challenges.
+## 3. SIGNIFICANT BANK CHANGES BY TOPIC
+**Net Interest Margin (NIM) &amp; Profitability:**
+- **Most Improved: ABB** - Achieved a 202.3% QoQ increase in net profit with NIM edging up to 1.95%, driven by improved loan yields and robust TOI growth.
+- **Most Concerning: BVB** - Despite a modest NIM recovery to 2.4%, profitability collapsed with an 83.5% QoQ drop in pre-tax profit due to rising provision expenses.
+**Credit Growth &amp; Lending:**
+- **Strongest Growth: ABB** - Loan growth surged 17.0% QoQ, significantly outpacing sector trends and driving a strong revenue trajectory.
+- **Weakest/Declining: SGB** - Loan book contracted by 3.1% QoQ, marking a second consecutive quarter of decline, reflecting ongoing risk aversion or weak demand.
+**Asset Quality &amp; Risk Management:**
+- **Most Improved: NVB** - NPL ratio fell to 11.4% from 14.0% QoQ, with coverage rising to 13.0%, indicating effective risk management and a reduction in tail risk.
+- **Most Deteriorated: BVB** - NPL ratio increased to 3.8% from 3.4% QoQ, with coverage dropping to 40.4%, signaling renewed credit stress and weaker loss absorption capacity.</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45874.7423742439</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>success</t>
         </is>

--- a/Data/quarterly_analysis_results.xlsx
+++ b/Data/quarterly_analysis_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,94 +467,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1Q24</t>
+          <t>2Q24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>## 1. KEY CHANGES SUMMARY
-**Overall Banking Sector Performance and Market Conditions**
-- **Profitability under pressure:** Many banks reported sequential declines in profitability, largely due to rising provision expenses, margin compression, and normalization after one-off gains in 4Q23.
-- **NIM compression widespread:** Net interest margins continued to compress across most banks, reflecting falling loan yields, competitive pricing, and asset mix shifts.
-- **Loan growth mixed:** While some banks posted robust loan growth (notably in the private sector), others saw momentum stall or even contract, indicating a more cautious lending environment.
-- **Asset quality deterioration:** NPL and Group 2 ratios increased at many banks, with coverage ratios slipping, signaling rising credit risk and the onset of a more challenging credit cycle.
-- **Provision-driven profit swings:** Several banks’ profit rebounds were driven by sharply lower provision expenses rather than core business strength, masking underlying revenue and credit risks.
-**Common Themes and Patterns Across Bank Types**
-- **State-owned (SOCB) banks:** Generally showed more stable profitability but faced rising asset quality pressures and slower loan growth (e.g., BID, VCB, CTG).
-- **Large private banks:** Mixed performance—some (TCB, STB) delivered strong topline and profit growth with stable asset quality, while others (MBB, VPB, VIB) saw profit rebounds driven by provision cuts, but with rising credit risk and margin pressure.
-- **Mid/small private banks:** High volatility—many (ABB, BAB, BVB, KLB, VBB, SGB) experienced sharp swings in profitability, often due to provision normalization, with asset quality and margin risks intensifying.
-- **Sector-wide margin squeeze:** NIM compression is a universal theme, with only a few exceptions managing to stabilize or expand margins through improved funding cost management.
-- **Credit risk rising:** Across all bank types, asset quality metrics are deteriorating, with NPL formation and coverage ratios trending negatively.
----
+- **Overall Banking Sector Performance and Market Conditions:**
+  - The Vietnamese banking sector in 2Q24 showed mixed performance with strong loan growth across many banks, but profitability was under pressure due to margin compression and rising provision expenses.
+  - Asset quality showed divergent trends, with some banks improving coverage and reducing NPLs, while others faced rising credit risks.
+- **Common Themes and Patterns Across Different Bank Types:**
+  - **Private Banks:** Many private banks experienced robust loan growth and profitability rebounds, but faced challenges with margin compression and asset quality concerns.
+  - **State-Owned Commercial Banks (SOCBs):** SOCBs like BID and VCB showed strong loan growth but struggled with margin pressure and profitability declines.
+  - **Smaller Banks:** Smaller banks like NAB and BVB showed significant rebounds in profitability and asset quality improvements, signaling effective risk management.
 ## 2. SENTIMENT ANALYSIS &amp; NOTABLE BANKS
-**Overall Sector Sentiment**
-- **Cautiously negative/neutral:** The tone is generally cautious, with more negative surprises than positive. While some banks posted headline profit rebounds, these were often provision-driven and not underpinned by sustainable core business improvements. Asset quality and margin trends are the main sources of concern.
-**Banks with Most Positive Developments**
-- **Techcombank (TCB):**
-  - Standout topline and profit growth (TOI +11.3% QoQ, PBT +35.1% QoQ)
-  - Robust loan growth (+7.8% QoQ, +32.3% YoY)
-  - Margin recovery (NIM up to 4.4%), stable/improving asset quality (NPL down to 1.13%, coverage up)
-  - Strongest positive surprise among large private banks
-- **Sacombank (STB):**
-  - Solid topline and profit growth YoY, with accelerating loan growth and stable NIM
-  - Asset quality held steady, with improved coverage
-  - Underlying business momentum remains healthy
-- **LienVietPostBank (LPB):**
-  - Exceptional loan growth (+11.7% QoQ), outpacing sector
-  - Profitability moderated but remains strong; asset quality risk contained for now
-- **MSB, SHB:** Both rebounded in profitability due to normalized provisions, though underlying risks remain
-**Banks with Most Concerning Issues**
-- **MBBank (MBB):**
-  - Sharp profit decline (-7.8% QoQ, -11.0% YoY), surge in provisions (+70.6% QoQ)
-  - NPL ratio spiked to 2.5%, coverage fell to 0.80x (multi-year low)
-  - Loan growth stalled (+0.6% QoQ), margin compressed
-- **VIB:**
-  - Profit rebound driven solely by provision cuts, not core income
-  - Loan growth stalled (+0.3% QoQ), NIM compressed, NPLs rose to 3.6%, coverage weak
-- **SGB, VBB, ABB:** All suffered sharp reversals in profitability, margin compression, and rising asset quality risks
-- **NVB:** Continued negative profitability, critically low NPL coverage (6.4%), despite some stabilization in asset quality
-- **VPB:** Profit surge provision-driven, but early risk signals rising (Group 2 loans up to 8.3%, NPL coverage still low)
----
+- **Overall Sector Sentiment:** Neutral to slightly positive, with strong loan growth but offset by margin pressures and mixed asset quality trends.
+- **Banks with Most Positive Developments:**
+  - **MBB:** Delivered a strong rebound with improved asset quality and profitability, outpacing sector growth.
+  - **KLB:** Showed significant profitability and loan growth, with improved asset quality metrics.
+  - **NAB:** Demonstrated robust topline and profit growth with improving asset quality, marking a positive surprise.
+- **Banks with Most Concerning Issues:**
+  - **NVB:** Despite a profit rebound, faced significant asset quality deterioration with high NPLs and low coverage ratios.
+  - **BAB:** Experienced a sharp slowdown in profitability and worsening asset quality, with NPLs and coverage ratios at concerning levels.
+  - **VIB:** Saw a drop in profitability and asset quality, with rising provisions and declining coverage ratios.
 ## 3. SIGNIFICANT BANK CHANGES BY TOPIC
-### Net Interest Margin (NIM) &amp; Profitability
-- **Most improved:**
-  - **Techcombank (TCB):**
-    - NIM rebounded to 4.4% (from 4.2%), bucking sector trend
-    - TOI +11.3% QoQ, PBT +35.1% QoQ, ROA/ROE surged
-    - Margin expansion and lower provision expense drove best-in-class profit growth
-- **Most concerning:**
-  - **MBBank (MBB):**
-    - NIM compressed to 4.0% (lowest in two years), loan yields dropped to 8.3%
-    - Profit before tax fell 7.8% QoQ, 11.0% YoY; ROA/ROE both declined sharply
-    - Driven by surging provisions and margin pressure
-### Credit Growth &amp; Lending
-- **Strongest growth:**
-  - **LienVietPostBank (LPB):**
-    - Loan book up 11.7% QoQ, far outpacing sector (3.5%)
-    - Demonstrates aggressive expansion and market share gain
-- **Weakest/declining:**
-  - **ABBANK (ABB):**
-    - Loan book contracted 19.5% QoQ after prior surge
-    - Indicates sharp retrenchment in lending activity, well below sector trend
-### Asset Quality &amp; Risk Management
-- **Most improved:**
-  - **Techcombank (TCB):**
-    - NPL ratio edged down to 1.13% (from 1.16%), coverage improved to 1.06x
-    - Asset quality stable despite rapid loan growth; disciplined underwriting
-- **Most deteriorated:**
-  - **MBBank (MBB):**
-    - NPL ratio jumped to 2.5% (from 1.6%), new NPL formation at 1.2% (highest in over a year)
-    - NPL coverage fell to 0.80x (well below sector/historical levels)
-    - Indicates rising credit risk and limited loss absorption capacity
----
-**Insufficient data available** for some smaller banks in certain categories, but the above highlights capture the most significant sector-wide and bank-specific changes for 1Q24.</t>
+- **Net Interest Margin (NIM) &amp; Profitability:**
+  - **Most Improved:** MBB - Achieved a sharp rebound in NIM to 4.6% from 4.0%, driven by improved funding costs and asset mix, alongside a 31.7% QoQ profit surge.
+  - **Most Concerning:** VIB - NIM fell to a multi-year low of 3.8% from 4.3%, with profitability dropping due to rising provisions and weaker core revenue.
+- **Credit Growth &amp; Lending:**
+  - **Strongest Growth:** NAB - Accelerated loan growth to 6.6% QoQ, pushing YTD expansion to 10.6%, well above sector pace.
+  - **Weakest/Declining:** OCB - Loan growth stalled at 1.0% QoQ, following a robust 1Q24, indicating a loss of momentum.
+- **Asset Quality &amp; Risk Management:**
+  - **Most Improved:** MBB - NPL ratio dropped to 1.6% from 2.5%, with improved coverage ratios, signaling effective risk management.
+  - **Most Deteriorated:** NVB - NPL ratio spiked to 35.3% from 28.9%, with coverage falling to 5.1%, highlighting significant credit risk exposure.
+- **Insufficient Data Available:** None. All categories have sufficient data for analysis.</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>27</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45874.73028045139</v>
+        <v>45874.75007532755</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -565,86 +518,46 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2Q24</t>
+          <t>3Q24</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>## 1. KEY CHANGES SUMMARY
-**Overall Banking Sector Performance &amp; Market Conditions**
-- **Profitability Rebound, but Uneven:** Most banks posted a sharp sequential rebound in profitability in 2Q24, driven by strong loan growth, margin recovery at select banks, and lower provision expenses. However, topline and bottom-line momentum is uneven, with some banks (e.g., OCB, VIB, BAB) reporting profit declines due to margin compression and rising provisions.
-- **Loan Growth Accelerates:** Sector-wide loan growth accelerated in 2Q24, with several banks (MBB, NAB, KLB, VBB, NVB) outpacing sector averages. This reflects improved credit demand and a more aggressive risk appetite after a subdued 1Q24.
-- **NIM Under Pressure, but Some Recovery:** Net interest margins (NIMs) remain under pressure sector-wide due to falling loan yields and competitive pricing. However, a few banks (MBB, TCB, SSB, KLB) bucked the trend with notable NIM recovery, often due to improved funding costs or asset mix.
-- **Asset Quality Divergence:** Asset quality trends are mixed. Several banks (MBB, NAB, KLB, TCB) showed improvement in NPL and group 2 ratios, while others (NVB, BAB, VPB, VIB, PGB) reported significant deterioration, with rising NPLs and declining coverage ratios.
-- **Provisioning Trends:** Provision expenses generally normalized or fell at most banks, supporting profit recovery. However, some banks (OCB, PGB, VIB, VPB) saw sharp spikes in provisions due to rising credit costs.
-**Common Themes &amp; Patterns Across Bank Types**
-- **Private Banks:** Outperformed on loan growth and, in many cases, profitability (MBB, TCB, SSB, KLB, NAB). However, asset quality is bifurcated—some (MBB, KLB, NAB) improved, while others (VPB, VIB, NVB) saw sharp deterioration.
-- **State-Owned Banks (SOCBs):** Generally lagged in NIM and ROE (BID, CTG), but showed robust loan growth (VCB, BID). Asset quality at SOCBs is stable or improving (VCB), but coverage ratios are often higher than private peers.
-- **Smaller/“Group 3” Banks:** Highly volatile results. Some (KLB, BVB, VBB, ABB) posted strong rebounds in growth, margin, and asset quality, while others (NVB, BAB) are facing severe asset quality and profitability challenges.
-- **Margin Compression is Widespread:** Most banks are facing ongoing NIM pressure from falling loan yields, with only a handful managing to expand margins through funding cost optimization or asset mix changes.
-- **Credit Risk is the Key Swing Factor:** Asset quality divergence is the most important theme—banks with improving NPLs and coverage are outperforming, while those with rising NPLs and falling coverage are underperforming.
----
+- **Overall Banking Sector Performance and Market Conditions:**
+  - The Vietnamese banking sector in 3Q24 experienced mixed performance, with profitability generally under pressure due to margin compression and elevated provision expenses.
+  - Loan growth remained positive overall, but the pace varied significantly across banks, with some showing robust expansion while others experienced a slowdown.
+  - Asset quality showed a mixed picture, with some banks improving coverage and reducing NPLs, while others faced rising credit risks.
+- **Common Themes and Patterns Across Different Bank Types:**
+  - **State-Owned Commercial Banks (SOCBs):** Generally faced challenges with profitability due to increased provision expenses and margin compression, despite some maintaining positive loan growth.
+  - **Private Banks:** Showed varied performance, with some like VBB and VPB delivering strong profitability and asset quality improvements, while others like ABB and NVB struggled with profitability and rising credit risks.
+  - **Sector-Wide Trends:** Margin compression was a common issue across the board, driven by competitive lending environments and shifts toward lower-yielding assets.
 ## 2. SENTIMENT ANALYSIS &amp; NOTABLE BANKS
-**Overall Sector Sentiment**
-- **Cautiously Positive, but Diverging:** The sector tone is cautiously positive, with many banks rebounding in growth and profitability. However, sentiment is tempered by persistent margin compression and rising asset quality risks at several banks. The sector is bifurcating between “winners” (growth + risk control) and “laggards” (margin/credit stress).
-**Banks with Most Positive Developments**
-- **MBB:** Standout rebound in profitability (+31.7% QoQ PBT), double-digit loan growth (+9.9% QoQ), NIM recovery (4.6%), and sharp asset quality improvement (NPL down to 1.6%, coverage up to 1.02x).
-- **TCB:** Consistent sector-leading topline growth (+9.4% QoQ TOI, +43.9% YoY), NIM expansion (4.7%), and robust asset quality (NPL 1.2%, high coverage 1.01x).
-- **KLB:** Surging profitability (+57.9% QoQ PBT), strong loan growth (+6.5% QoQ), NIM jump (4.5%), and improved asset quality (NPL down to 2.0%, coverage up to 69.8%).
-- **NAB:** Strong topline (+17.5% QoQ TOI), loan growth (+6.6% QoQ), NIM recovery (4.1%), and broad asset quality improvement (NPL down to 2.6%, coverage up to 47.2%).
-- **SSB:** Standout profit growth (+15% QoQ PBT, +83% YoY), NIM at multi-year high (4.2%), and stable asset quality (NPL down to 1.91%).
-**Banks with Most Concerning Issues**
-- **NVB:** Severe asset quality deterioration (NPL up to 35.3%, coverage down to 5.1%), despite profit rebound. Aggressive loan growth (+10% QoQ) is driving risk, not sustainable returns.
-- **BAB:** Profitability collapse (-39.9% QoQ PBT), asset quality deterioration (NPL up to 1.48%, coverage down to 0.86x), and stalling topline.
-- **VPB:** Despite strong profit rebound, asset quality is under pressure (NPL up to 5.1%, coverage down to 48.1%), with new NPL formation spiking.
-- **VIB:** Profit and margin decline (PBT -15.9% QoQ, NIM down to 3.8%), rising NPLs (3.7%), and coverage erosion (48.1%).
-- **OCB:** Profitability down sharply (-26% QoQ PBT), surging provisions, and early signs of asset quality deterioration (NPL up to 3.1%, coverage slipping).
-- **PGB:** Profitability softened (-18% QoQ PBT), NPLs rising (3.53%), and coverage below historical norms (31.1%).
----
+- **Overall Sector Sentiment:** Neutral to Negative
+  - The sentiment is mixed, with profitability pressures and margin compression weighing on the sector, despite some positive developments in loan growth and asset quality for certain banks.
+- **Banks with Most Positive Developments:**
+  - **VBB:** Delivered strong profitability and topline growth, outpacing sector trends with robust earnings leverage and effective risk management.
+  - **VPB:** Achieved a significant profitability beat with strong topline growth and improved asset quality, marking a positive surprise.
+- **Banks with Most Concerning Issues:**
+  - **ABB:** Faced a sharp reversal in profitability with net losses and negative returns, driven by a collapse in core income and higher risk provisioning.
+  - **NVB:** Experienced a sharp reversal in profitability with net losses, stalled loan growth, and thin coverage ratios, indicating elevated risk.
 ## 3. SIGNIFICANT BANK CHANGES BY TOPIC
-### Net Interest Margin (NIM) &amp; Profitability
-- **Most Improved:**
-    - **MBB:** NIM rebounded from 4.0% to 4.6% (after a year-long compression), PBT up 31.7% QoQ, ROA/ROE now above sector averages. Driven by both margin recovery and strong topline growth.
-    - **KLB:** NIM surged from 3.1% to 4.5%, PBT up 57.9% QoQ, ROA/ROE at multi-year highs. Margin expansion despite slight dip in loan yields, indicating improved funding cost management.
-    - **SSB:** NIM jumped a full percentage point QoQ to 4.2% (multi-year high), with TOI up 22.1% QoQ and PBT up 15% QoQ.
-- **Most Concerning:**
-    - **VIB:** NIM fell to a multi-year low (3.8% from 4.3%), PBT down 15.9% QoQ, ROA/ROE at lowest levels in over a year. Margin squeeze and rising provisions are eroding profitability.
-    - **BAB:** Despite NIM improvement (2.5%), profit collapsed (-39.9% QoQ PBT), and margin gains are not translating into earnings due to weak core income and asset quality stress.
-    - **OCB:** NIM edged up (3.5%), but profit dropped sharply (-26% QoQ PBT) due to surging provisions and stalling loan growth.
----
-### Credit Growth &amp; Lending
-- **Strongest Growth:**
-    - **NVB:** Loan growth +10.0% QoQ, YTD +16.2%, far outpacing sector, though at the cost of asset quality.
-    - **MBB:** Loan growth +9.9% QoQ, YTD +10.5%, supporting topline and profit recovery.
-    - **VBB:** Loan growth +9.1% QoQ, YTD +10.0%, with strong margin recovery.
-    - **NAB:** Loan growth +6.6% QoQ, YTD +10.6%, double sector pace, supporting profit and margin rebound.
-    - **KLB:** Loan growth +6.5% QoQ, YoY +19.1%, sector-leading expansion.
-- **Weakest/Declining:**
-    - **BAB:** Loan growth only +1.5% QoQ, still trailing sector at 5.9%, and topline is essentially flat.
-    - **OCB:** Loan growth stalled at +1.0% QoQ (down from +4.5% in 1Q24), with momentum fading and topline flat.
-    - **SGB:** Loan growth +2.9% QoQ, but YTD only +1.7%, well below sector averages.
----
-### Asset Quality &amp; Risk Management
-- **Most Improved:**
-    - **MBB:** NPL ratio dropped from 2.5% to 1.6%, group 2 loans declined, NPL coverage rebuilt to 1.02x, reversing prior deterioration.
-    - **KLB:** NPL fell to 2.0% from 2.5%, group 2 loans down, coverage up to 69.8%, net recoveries in NPL and group 2 formation.
-    - **NAB:** NPL down to 2.6% from 2.7%, group 2 loans down to 2.7%, coverage up to 47.2%, NPL formation at lowest in a year.
-    - **TCB:** NPL stable at 1.2%, group 2 loans improved, coverage robust at 1.01x, asset quality remains a sector bright spot.
-- **Most Deteriorated:**
-    - **NVB:** NPL ratio spiked to 35.3% (from 28.9%), NPL formation at 10%, coverage down to 5.1%—severe credit risk escalation.
-    - **BAB:** NPL up to 1.48% (from 1.11%), group 2 formation spiked, coverage at multi-year low (0.86x).
-    - **VPB:** NPL up to 5.1% (from 4.8%), new NPL formation at 2.0%, coverage slipped to 48.1%.
-    - **VIB:** NPL up to 3.7%, coverage down to 48.1%, persistent NPL formation.
-    - **PGB:** NPL up to 3.53% (from 2.93%), NPL formation at six-quarter high, coverage stable but below norms (31.1%).
----
-**If you need further breakdowns by bank group or additional topics, please specify.**</t>
+- **Net Interest Margin (NIM) &amp; Profitability:**
+  - **Most Improved:** VPB - Achieved a strong profitability beat with a 15.5% QoQ increase in PBT, driven by robust topline growth and sharply lower provision expenses.
+  - **Most Concerning:** ABB - Suffered a sharp reversal in profitability with a 46.1% QoQ drop in TOI and net losses, driven by a collapse in core income and higher risk provisioning.
+- **Credit Growth &amp; Lending:**
+  - **Strongest Growth:** VBB - Delivered strong loan growth with a 13.5% YTD increase, outpacing the sector and supported by stable NIM and disciplined pricing.
+  - **Weakest/Declining:** NVB - Loan growth stalled with just a 0.3% QoQ increase, well below the sector's 4.3%, indicating a loss of growth momentum.
+- **Asset Quality &amp; Risk Management:**
+  - **Most Improved:** VAB - Achieved sharp improvements in asset quality with NPL and group 2 ratios dropping significantly, and coverage ratios hitting multi-year highs.
+  - **Most Deteriorated:** BVB - Faced rising NPLs with a jump to 4.7% and weakened coverage ratios, signaling increased credit risk and exposure to future losses.</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>27</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45874.73002015046</v>
+        <v>45874.74962978176</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -655,91 +568,52 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3Q24</t>
+          <t>4Q24</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>## 1. KEY CHANGES SUMMARY
-**Overall Banking Sector Performance &amp; Market Conditions**
-- **Profitability under pressure:** Most banks reported sequential declines in profitability (PBT/ROA/ROE), mainly due to margin compression, weaker topline growth, and/or higher provision expenses.
-- **Net Interest Margin (NIM) compression:** Widespread NIM contraction across the sector, driven by falling loan yields and competitive lending, despite some banks managing to stabilize or slightly improve margins.
-- **Loan growth remains robust but uneven:** Several banks (e.g., TCB, TPB, VIB, BVB) posted strong QoQ loan growth, but a number of others saw deceleration or stalling (e.g., ACB, LPB, NVB, SGB, PGB).
-- **Asset quality mixed:** Some banks reported improvement in NPL and group 2 ratios (e.g., STB, SSB, VAB, VBB), while others saw sharp deterioration (e.g., OCB, BVB, SGB, MBB).
-- **Provisioning trends diverge:** Many banks saw a spike in provision expenses (OCB, SGB, SSB, ABB), while others benefited from sharply lower provisions (VCB, BAB, VPB), directly impacting profitability swings.
-- **Private vs. SOCB divergence:** Private banks generally exhibited stronger loan growth and topline momentum but faced more volatility in profitability and asset quality. SOCBs (e.g., VCB, BID, CTG) maintained steadier asset quality and coverage but struggled with margin and topline growth.
-**Common Themes &amp; Patterns**
-- **Margin squeeze is sector-wide:** NIM compression is the dominant theme, with only a few exceptions (e.g., STB, SSB, HDB).
-- **Profitability volatility:** Earnings swings are pronounced, with some banks (ABB, NVB, SGB) swinging to losses or sharp profit declines, while others (VPB, BAB, VBB) rebounded on lower provisions or topline recovery.
-- **Asset quality bifurcation:** Clear split between banks proactively building coverage and improving NPLs (STB, SSB, VAB, VBB) versus those with rising NPLs and falling coverage (OCB, BVB, MBB, SGB).
-- **Loan growth as a double-edged sword:** Banks with fastest loan growth (TPB, VIB, BVB, TCB) often face rising asset quality risk and margin compression, highlighting the trade-off between growth and risk control.
----
+- **Overall Banking Sector Performance and Market Conditions:**
+  - The Vietnamese banking sector in 4Q24 experienced mixed performance, with several banks showing strong growth in loan portfolios and operating income, while others faced profitability challenges due to margin compression and elevated provision expenses.
+  - A common theme was the robust loan growth across many banks, indicating strong credit demand, although this was often accompanied by pressure on net interest margins (NIM) due to competitive lending rates and asset repricing.
+- **Common Themes and Patterns Across Different Bank Types:**
+  - **State-Owned Commercial Banks (SOCBs):** Generally showed strong loan growth and improved asset quality, but faced margin compression and rising operational costs, impacting profitability.
+  - **Private Banks:** Exhibited varied performance; some private banks like MBB and VPB showed strong profitability and asset quality improvements, while others like TCB and NVB faced significant challenges in profitability and core income.
+  - **Smaller/Regional Banks:** Displayed significant volatility, with some banks like BVB and KLB showing strong rebounds in profitability and asset quality, while others like SGB and NVB faced severe profitability and asset quality issues.
 ## 2. SENTIMENT ANALYSIS &amp; NOTABLE BANKS
-**Overall Sector Sentiment**
-- **Neutral to slightly negative:** The tone is cautious, with concerns over margin compression, profitability pressure, and rising credit risk outweighing isolated positive surprises. Earnings volatility and asset quality divergence are key concerns.
-**Banks with Most Positive Developments**
-- **VBB:** Standout positive surprise with accelerating profitability (PBT +21.6% QoQ, +625.6% YoY), robust topline, stable NIM, and improving asset quality/coverage.
-- **STB:** Maintained steady profit growth, margin stability (NIM up), and improved coverage, signaling prudent risk management.
-- **VPB:** Strong profitability rebound (PBT +15.5% QoQ, +66.4% YoY), improved asset quality (NPL and group 2 down), and coverage rebuilding.
-- **BAB:** Significant profit turnaround (PBT +33.4% QoQ, +151.8% YoY), improved asset quality, and lower provisions.
-- **TCB:** Strong loan growth (5.7% QoQ, 20.6% YTD), stable asset quality, and high coverage, though margin pressure is noted.
-**Banks with Most Concerning Issues**
-- **OCB:** Severe profit collapse (PBT -51% QoQ, -67.5% YoY), surging provisions, rising NPLs, and weak coverage.
-- **ABB:** Sharp swing to net loss (PBT -VND 343bn), topline collapse, and negative returns, despite asset quality improvement.
-- **BVB:** Profitability sharply reversed (PBT -65% QoQ), NPLs spiked to 4.7%, and coverage weakened to 32.7%.
-- **SGB:** Profitability plunged (PBT -52.3% QoQ), NPLs and new formation up, coverage fell, signaling rising credit stress.
-- **NVB:** Returned to net loss, loan growth stalled, and coverage remains critically thin at 5.8%.
-- **MBB:** Despite strong loan growth, asset quality deteriorated (NPL up to 2.2%, coverage down to 68.8%), and profitability softened.
----
+- **Overall Sector Sentiment:**
+  - The overall sentiment for the sector is mixed, with positive developments in loan growth and asset quality improvements for some banks, but concerns over profitability and margin compression for others.
+- **Banks with Most Positive Developments:**
+  - **MBB:** Delivered strong growth in TOI and profitability, with improved asset quality metrics, signaling renewed momentum and effective risk management.
+  - **VPB:** Achieved a significant rebound in profitability and loan growth, with improved asset quality, marking a positive surprise in earnings momentum.
+- **Banks with Most Concerning Issues:**
+  - **NVB:** Faced a sharp deterioration in profitability with a collapse in core income and severe margin pressure, signaling deep structural challenges.
+  - **SGB:** Experienced a steep drop in profitability and rising asset quality risks, with a significant increase in new NPL formation and margin compression.
 ## 3. SIGNIFICANT BANK CHANGES BY TOPIC
-### Net Interest Margin (NIM) &amp; Profitability
-- **Most improved:**
-  - **VBB:** Delivered strong profit growth (PBT +21.6% QoQ, +625.6% YoY), stable NIM at multi-year highs (2.36%), and robust topline expansion.
-  - **VPB:** Profitability rebounded sharply (PBT +15.5% QoQ), with NIM still high at 5.8% despite some compression.
-  - **BAB:** PBT up 33.4% QoQ, NIM compressed but earnings rebounded on lower provisions.
-- **Most concerning:**
-  - **OCB:** PBT plunged 51% QoQ (and 67.5% YoY), driven by surging provisions and flat topline; NIM edged down to 3.4%.
-  - **ABB:** Swung to net loss (PBT -VND 343bn), TOI down 46.1% QoQ, NIM compressed to 1.9%.
-  - **BVB:** PBT fell 65% QoQ, NIM dropped to 2.33%, and topline momentum stalled.
-  - **SGB:** PBT down 52.3% QoQ, despite topline growth; NIM only modestly improved, but not enough to offset risk costs.
-  - **NVB:** Returned to net loss, NIM softened to 1.24%, and core income weakened.
-### Credit Growth &amp; Lending
-- **Strongest growth:**
-  - **TPB:** Loan growth surged 10.0% QoQ, 14.3% YTD—the fastest in the sector.
-  - **VIB:** Loan growth accelerated to 6.6% QoQ, 11.5% YTD.
-  - **BVB:** Loan book expanded 7.5% QoQ, 10.8% YTD.
-  - **TCB:** Loan growth at 5.7% QoQ, 20.6% YTD—leading among large banks.
-  - **SSB:** Loan growth 5.8% QoQ, 9.7% YTD.
-  - **VAB:** Loan growth 4.8% QoQ, 11.7% YTD.
-- **Weakest/declining:**
-  - **ACB:** Loan growth slowed sharply to 0.81% QoQ from 8.7% in 2Q24.
-  - **LPB:** Loan growth decelerated to 0.6% QoQ from 3.1% prior.
-  - **NVB:** Loan growth nearly stalled at 0.3% QoQ after a strong 2Q24.
-  - **SGB:** Loan growth flat at 0.5% QoQ, YTD only 2.1%.
-  - **PGB:** Loan growth up just 0.5% QoQ, lagging sector peers.
-### Asset Quality &amp; Risk Management
-- **Most improved:**
-  - **VAB:** NPL ratio dropped to 1.7% (from 2.5%), coverage surged to 70.3% (multi-year high), and both NPL/G2 formation turned negative.
-  - **STB:** NPL coverage climbed to 75% (highest in over a year), NPL formation slowed, and asset quality remained stable.
-  - **SSB:** NPL and group 2 ratios improved, coverage rebounded to 80.8%.
-  - **VBB:** NPL ratio edged down, coverage strengthened to 37.7%, and asset quality improved.
-  - **BAB:** NPL and group 2 ratios declined, formation negative, and coverage rebounded to 97.7%.
-- **Most deteriorated:**
-  - **OCB:** NPL ratio up to 3.2%, new NPL formation at 0.7% (highest in over a year), group 2 loans doubled, and coverage fell to 53.9%.
-  - **BVB:** NPL ratio jumped to 4.7%, coverage dropped to 32.7%, and new NPL formation spiked.
-  - **SGB:** NPL ratio climbed to 2.85%, new NPL formation accelerated, and coverage fell to 33.5%.
-  - **MBB:** NPL ratio rose to 2.2% (from 1.6%), group 2 up, and coverage fell sharply to 68.8%.
-  - **VIB:** NPL ratio up to 3.9%, NPL formation increased, and coverage dropped to 47.1%.
-  - **NVB:** Coverage remains critically low at 5.8%, despite headline NPL improvement.
----
-**If further breakdown or bank-specific deep dives are needed, please specify.**</t>
+**Net Interest Margin (NIM) &amp; Profitability:**
+- **Most Improved:** 
+  - **MBB:** Achieved a significant rebound in profitability with a 30.4% QoQ increase in TOI and improved ROA and ROE, driven by strong loan growth and stable NIM.
+- **Most Concerning:** 
+  - **NVB:** Experienced a severe collapse in profitability with NIM turning negative at -10.2%, reflecting unsustainable business dynamics and severe margin pressure.
+**Credit Growth &amp; Lending:**
+- **Strongest Growth:** 
+  - **VPB:** Loan growth accelerated to 9.1% QoQ, pushing full-year expansion to 22.6%, well ahead of the sector, driven by a surge in loan expansion and margin recovery.
+- **Weakest/Declining:** 
+  - **ABB:** Loan growth stalled with balances flat QoQ (-0.05%), indicating a marked slowdown from previous quarters and lagging sector peers.
+**Asset Quality &amp; Risk Management:**
+- **Most Improved:** 
+  - **BVB:** Asset quality metrics improved markedly with NPL and group 2 ratios dropping and coverage ratios strengthening, signaling effective risk control.
+- **Most Deteriorated:** 
+  - **SGB:** Asset quality risks intensified with a spike in new NPL and group 2 loan formation, signaling rising credit risk and potential future provisioning needs.
+**Note:** If any category lacks sufficient data, it has been clearly stated as "Insufficient data available."</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>27</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45874.72933731481</v>
+        <v>45874.74924927593</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -750,89 +624,46 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4Q24</t>
+          <t>1Q25</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>## 1. KEY CHANGES SUMMARY
-**Overall Banking Sector Performance &amp; Market Conditions**
-- **Strong 4Q24 rebound:** Most banks reported a sharp sequential recovery in topline growth (TOI) and profitability after a weak mid-year, driven by loan growth acceleration and lower provision expenses.
-- **Loan growth re-accelerated:** Sector-wide loan growth picked up in 4Q24, with several banks (e.g., MBB, VPB, TPB, BVB, PGB) posting double-digit QoQ expansion, outpacing the sector average.
-- **Margin pressure persists:** Net interest margin (NIM) compression was a common theme, with most banks reporting lower NIMs due to falling loan yields, competitive pricing, and asset mix shifts, despite some outliers showing margin recovery.
-- **Asset quality mixed but improving:** Many banks saw improvement in NPL and group 2 ratios, with negative formation rates and higher coverage, but a few (e.g., SHB, ABB, SGB) reported renewed credit stress.
-- **Provisioning trends diverged:** Several banks’ profit beats were driven by sharp drops or reversals in provision expenses (e.g., STB, TCB, BAB), while others saw provision spikes (e.g., SHB, VBB, SGB) that capped earnings.
-- **Profitability dispersion:** ROA/ROE improved for most, but some banks (NVB, SGB) reported severe losses, while others (MBB, VPB, CTG, STB) hit multi-year highs.
-**Common Themes &amp; Patterns Across Bank Types**
-- **State-owned (SOCB):** Generally stable with improved asset quality (VCB, CTG), but margin compression and flat profit growth (VCB, BID).
-- **Large private banks (Private_1):** Volatile, with some (MBB, VPB, STB) showing strong rebounds in profit and asset quality, while others (TCB) saw sharp earnings reversals.
-- **Mid-tier private banks (Private_2):** Mixed; several (MSB, OCB, TPB) posted strong profit and asset quality recoveries, but margin pressure and provision volatility persist.
-- **Small/private_3 banks:** Highly dispersed; some (BVB, BAB, KLB) delivered positive surprises on growth and asset quality, while others (NVB, SGB) faced severe profitability and risk challenges.
----
+- **Overall Banking Sector Performance and Market Conditions:**
+  - The Vietnamese banking sector in 1Q25 experienced mixed performance with a general trend of profitability pressures due to declining net interest margins (NIM) and rising asset quality concerns.
+  - Loan growth was generally positive, with several banks outpacing sector averages, indicating robust lending activity despite profitability challenges.
+  - Asset quality showed signs of stress, with many banks reporting increased non-performing loans (NPLs) and group 2 loans, suggesting rising credit risk.
+- **Common Themes and Patterns Across Different Bank Types:**
+  - **State-Owned Commercial Banks (SOCBs):** Generally faced profitability pressures with declining NIMs and rising asset quality concerns. Loan growth was slower compared to private banks.
+  - **Private Banks:** Exhibited strong loan growth but faced significant NIM compression and asset quality deterioration. Some private banks managed to maintain profitability through aggressive lending and cost control.
+  - **Smaller/Regional Banks:** Showed volatility in earnings with some experiencing sharp rebounds in profitability due to provision cuts, while others faced margin and asset quality pressures.
 ## 2. SENTIMENT ANALYSIS &amp; NOTABLE BANKS
-**Overall Sector Sentiment**
-- **Positive to cautiously optimistic:** The majority of banks reported strong sequential recoveries in profit, loan growth, and asset quality, supporting a constructive sector outlook. However, persistent NIM compression and isolated cases of severe stress temper the optimism.
-**Banks with Most Positive Developments**
-- **MBB:** Standout performance with TOI +30.4% QoQ, loan growth +10.7% QoQ, ROA/ROE at sector highs, and marked asset quality improvement (NPL ratio down to 1.6%).
-- **VPB:** Strongest topline and profit growth (+17.1% TOI, +18.6% PBT QoQ), NIM recovery to 6.0%, and improved asset quality (NPL down to 4.2%, coverage up).
-- **BVB:** Record profit growth (TOI +48.2% QoQ, PBT up &gt;6x), NIM at new high (3.15%), and sharp asset quality improvement (NPL down to 3.1%).
-- **CTG:** PBT up 86.9% QoQ, ROE at 27.1%, robust loan growth (+7.4% QoQ), and improved NPL coverage (174.7%).
-- **MSB:** TOI +45% QoQ, NIM up to 4.2%, asset quality and coverage at multi-quarter highs.
-- **TPB:** TOI +28.2% QoQ, NPL coverage at multi-year high (81.3%), and strong loan growth (+6.8% QoQ).
-- **NAB:** Consistent profitability, robust asset quality improvement (NPL down to 2.3%, coverage up to 52.8%).
-**Banks with Most Concerning Issues**
-- **NVB:** Severe profitability collapse (TOI loss, PBT -VND 5.07tn, ROA -17.8%), NIM and loan yield deeply negative, asset quality “improved” only due to technical factors, coverage extremely weak.
-- **SGB:** Profitability unraveled (TOI -59.8% QoQ, negative PBT), NIM collapsed to 0.7%, asset quality risks rising (spike in new NPL and group 2 formation).
-- **ABB:** Despite profit rebound, loan growth stalled and asset quality deteriorated (NPL up to 3.7%, coverage down).
-- **SHB:** Topline and loan growth strong, but asset quality deteriorated (NPL up to 2.9%, coverage slipped), provision spike capped profit.
-- **TCB:** Sharp reversal in profitability (TOI -18.7% QoQ, PBT -34.9% QoQ), margin compression, profit propped up by provision drop, core income weakness.
----
+- **Overall Sector Sentiment:** Neutral to negative, driven by profitability pressures, margin compression, and rising asset quality risks, despite strong loan growth in some banks.
+- **Banks with Most Positive Developments:**
+  - **SSB:** Delivered a dramatic surge in profitability with record gains in TOI and net profit due to strong topline growth and reduced provision expenses.
+  - **NVB:** Showed a sharp turnaround with positive profitability and improved asset quality, driven by robust loan growth and effective risk management.
+- **Banks with Most Concerning Issues:**
+  - **OCB:** Faced a sharp pullback in profitability with significant TOI and net profit declines due to margin compression and rising risk costs.
+  - **VIB:** Experienced a sharp drop in core income and continued margin compression, with rising asset quality stress and weakening coverage ratios.
 ## 3. SIGNIFICANT BANK CHANGES BY TOPIC
-### Net Interest Margin (NIM) &amp; Profitability
-- **Most improved:**
-  - **BVB:** NIM expanded sharply to 3.15% (new high), TOI +48.2% QoQ, PBT up &gt;6x, ROA/ROE at multi-year highs; driven by improved asset yields and balance sheet management.
-  - **MSB:** NIM jumped to 4.2% (from 3.3%), TOI +45% QoQ, PBT +65.2% QoQ, ROA/ROE rebounded strongly.
-  - **MBB:** Maintained high NIM (4.2%), strong profit growth (TOI +30.4% QoQ, PBT +10.7% QoQ), ROA/ROE at sector highs.
-- **Most concerning:**
-  - **NVB:** NIM collapsed to -10.2% (from 1.2%), loan yield -8.3%, ROA/ROE deeply negative, reflecting severe business stress.
-  - **SGB:** NIM collapsed to 0.7% (from 3.3%), TOI plunged 59.8% QoQ, PBT negative, signaling unsustainable margins and profitability.
-  - **TCB:** NIM compressed to 3.8% (from 4.2%), TOI and profit dropped sharply, with margin pressure a key driver.
----
-### Credit Growth &amp; Lending
-- **Strongest growth:**
-  - **PGB:** Loan growth +11.9% QoQ, +16.7% YoY, triple sector pace, signaling aggressive expansion.
-  - **MBB:** Loan growth +10.7% QoQ, +27.6% YTD, sector-leading.
-  - **NVB:** Loan growth +10.7% QoQ, +28.9% YTD, but at the cost of profitability and asset quality.
-  - **VPB:** Loan growth +9.1% QoQ, +22.6% YTD, driving topline/profit surge.
-  - **SHB:** Loan growth +8.4% QoQ, +19.2% YTD, fastest in years.
-- **Weakest/declining:**
-  - **ABB:** Loan growth stalled (-0.05% QoQ, +0.3% YoY), lagging sector peers.
-  - **VBB:** Loan growth slowed to +1.9% QoQ (vs. 3.2% prior), below sector average.
-  - **TCB:** Loan growth nearly stalled at +0.9% QoQ after strong earlier expansion.
----
-### Asset Quality &amp; Risk Management
-- **Most improved:**
-  - **MBB:** NPL ratio dropped to 1.6% (from 2.2%), group 2 loans down, negative formation rates, coverage rebounded to 0.92x.
-  - **TPB:** NPL ratio down to 1.5% (from 2.3%), group 2 loans fell, coverage surged to 81.3%.
-  - **BVB:** NPL ratio dropped to 3.1% (from 4.7%), coverage up to 45.3%, negative formation rates.
-  - **NAB:** NPL down to 2.3% (from 2.9%), coverage up to 52.8%, negative formation rates.
-  - **VAB:** NPL down to 1.37% (from 1.70%), group 2 loans down, coverage high at 69.5%.
-  - **BAB:** NPL down to 1.24% (from 1.33%), group 2 loans down, negative formation, coverage stable.
-- **Most deteriorated:**
-  - **NVB:** NPL ratio “improved” to 19.5% (from 30.6%) due to technical factors, but coverage only 8.6%, underlying risk remains high.
-  - **ABB:** NPL up to 3.7% (from 3.2%), group 2 loans up, formation spiked, coverage fell to 46.2%.
-  - **SHB:** NPL up to 2.9% (from 2.5%), new NPL formation spiked to 1.4%, coverage slipped to 58.4%.
-  - **SGB:** New NPL and group 2 formation spiked, group 2 loans doubled to 5.0%, coverage only modestly improved.
-  - **OCB:** NPL formation elevated at 0.78%, coverage slipped to 47.1%, signaling ongoing credit risk.
----
-**Insufficient data available:** None—comprehensive data provided for all categories.</t>
+- **Net Interest Margin (NIM) &amp; Profitability:**
+  - **Most Improved:** SSB - Achieved a dramatic surge in profitability with record TOI and net profit gains, driven by strong topline growth and reduced provision expenses.
+  - **Most Concerning:** OCB - Experienced a sharp decline in profitability with TOI and net profit dropping due to margin compression and rising risk costs.
+- **Credit Growth &amp; Lending:**
+  - **Strongest Growth:** NAB - Delivered robust loan growth at 6.0% QoQ, significantly outpacing the sector, indicating aggressive balance sheet expansion.
+  - **Weakest/Declining:** ABB - Loan growth slipped into negative territory QoQ and YTD, reflecting weaker lending appetite and cautious stance.
+- **Asset Quality &amp; Risk Management:**
+  - **Most Improved:** NVB - Showed marked improvement in asset quality with NPL and group 2 ratios at multi-year lows, supported by effective risk management.
+  - **Most Deteriorated:** VIB - Asset quality deteriorated with rising NPL and group 2 formation rates, and coverage ratios weakening to multi-year lows.
+- **Insufficient data available** for additional categories or specific banks not mentioned above.</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>27</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45874.72890886574</v>
+        <v>45874.74906557218</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -843,226 +674,50 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1Q25</t>
+          <t>2Q25</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>## 1. KEY CHANGES SUMMARY
-**Overall Banking Sector Performance &amp; Market Conditions**
-- **Profitability under pressure:** Most banks reported sequential declines in profitability, with many citing falling total operating income (TOI), margin compression, and rising provision expenses. YoY growth is positive for some, but the sequential trend is negative.
-- **Net interest margin (NIM) compression:** NIMs declined across the majority of banks, driven by falling loan yields, competitive pricing, and rising funding costs. Only a handful of banks managed to stabilize or improve margins.
-- **Loan growth remains robust but uneven:** Several banks posted strong QoQ loan growth (notably in the private sector), but others saw sharp slowdowns or even contractions, reflecting divergent risk appetites and market positioning.
-- **Asset quality risks rising:** NPL and group 2 loan ratios increased at many banks, with new NPL formation rates spiking in several cases. Coverage ratios generally weakened, though a few banks improved buffers.
-- **Provisioning swings drive earnings volatility:** Profitability at many banks was supported by lower provisions, masking underlying weakness in core income and asset quality.
-- **Divergence by bank type:** State-owned commercial banks (SOCBs) generally showed more defensive asset quality but weaker growth and sharper margin compression. Private banks displayed more aggressive loan growth but at the cost of rising credit risk and margin pressure.
-**Common Themes &amp; Patterns**
-- **Margin squeeze is sector-wide:** NIM compression is nearly universal, with only isolated exceptions (e.g., KLB, NAB).
-- **Aggressive loan growth comes with trade-offs:** Banks with the fastest loan growth (e.g., KLB, MSB, SHB, NVB) often saw rising asset quality risks or margin pressure.
-- **Provision-driven profit beats:** Several banks (e.g., SHB, VAB, TPB) reported profit resilience or rebounds due to sharp drops in provisions, not stronger core business.
-- **Asset quality bifurcation:** Some banks (e.g., VCB, SSB, STB) maintained or improved asset quality, while others (e.g., OCB, TPB, VPB, VIB) saw significant deterioration.
-- **Earnings normalization after 4Q24 surge:** Many banks’ 1Q25 results reflect a normalization after a strong 4Q24, with topline and profit retreating to more sustainable levels.
----
-## 2. SENTIMENT ANALYSIS &amp; NOTABLE BANKS
-**Overall Sector Sentiment:**  
-- **Neutral-to-Negative:** The tone is cautious, with more negative surprises than positive. Margin compression, asset quality slippage, and profit normalization dominate, though some banks delivered positive surprises on specific metrics.
-**Banks with Most Positive Developments**
-- **SSB:**  
-  - Record profit growth (PBT up 184% QoQ, 189% YoY), sector-leading ROA (4.2%) and ROE (38.0%).
-  - Asset quality robust: NPL ratio down, coverage at 81.8%, negative NPL formation.
-  - Positive surprise driven by core income, not just provisions.
-- **KLB:**  
-  - Standout loan growth (+10.7% QoQ), strong topline (+47% YoY), resilient profitability (ROA 1.2%, ROE 16.9%).
-  - NIM rebounded to 3.9%.
-- **NVB:**  
-  - Sharp turnaround to profitability after prior losses, fastest loan growth (+9.8% QoQ), significant improvement in NPL ratio (1.4% from 2.0%).
-- **STB:**  
-  - Strongest topline growth in over a year, NIM rebounded, loan growth outpaced sector, asset quality manageable with improved coverage.
-- **TCB:**  
-  - Earnings and loan growth rebounded QoQ, asset quality held steady, coverage remains robust.
-**Banks with Most Concerning Issues**
-- **OCB:**  
-  - Profitability reversed (PBT down 38.5% QoQ, 26.5% YoY), NIM at multi-year low (3.2%), NPL ratio spiked to 3.9%, coverage plunged to 35%.
-- **VIB:**  
-  - Flat profit masks 12.8% drop in TOI, NIM compressed to 3.0%, NPL ratio up to 3.8%, coverage at multi-year low (38.6%).
-- **VPB:**  
-  - Profitability softened sharply (PBT down 18.5% QoQ), NPLs and new formation rates jumped (NPL 4.7%, formation 1.7%), coverage weakened.
-- **TPB:**  
-  - Asset quality flagged: NPL ratio up to 2.27%, new NPL formation 0.94%, coverage fell to 57.1%.
-- **BID, CTG (SOCBs):**  
-  - Both saw sharp profitability drops, NIM at multi-year lows, NPL formation at highest in years, coverage ratios falling.
-- **SGB:**  
-  - Despite profit rebound, loan book contracted, NPLs and group 2 loans climbed, coverage dropped to 31.6%.
----
-## 3. SIGNIFICANT BANK CHANGES BY TOPIC
-### Net Interest Margin (NIM) &amp; Profitability
-- **Most improved:**  
-  - **SSB** – Delivered a dramatic surge in profitability (PBT up 184% QoQ, 189% YoY), sector-leading ROA/ROE, driven by core income growth and lower provisions. Asset quality stable, coverage robust.
-  - **KLB** – NIM rebounded to 3.9% (from 3.8%), strong topline and profit growth, ROA/ROE well above sector.
-- **Most concerning:**  
-  - **OCB** – NIM fell to multi-year low (3.2%), TOI and PBT sharply down, margin pressure and provision normalization led to a negative profit surprise.
-  - **VIB** – NIM compressed to 3.0% (from 3.5%), TOI down 12.8% QoQ, profit flat due to provision cuts, not core improvement.
-### Credit Growth &amp; Lending
-- **Strongest growth:**  
-  - **KLB** – Loan growth surged 10.7% QoQ, 18.2% YoY, far outpacing sector.
-  - **NVB** – Loan growth accelerated to 9.8% QoQ, 34.1% YoY, fastest in over a year.
-  - **MSB, SHB, PGB** – All posted &gt;9% QoQ loan growth, signaling aggressive expansion.
-- **Weakest/declining:**  
-  - **ABB** – Loan growth negative at -0.7% QoQ and YTD, only bank with contraction.
-  - **SGB** – Loan book contracted 4.3% QoQ, reversing prior quarter’s growth.
-  - **VCB** – Slowest among large banks, just 1.1% QoQ, reflecting caution.
-### Asset Quality &amp; Risk Management
-- **Most improved:**  
-  - **NVB** – NPL ratio dropped to 1.4% (from 2.0%), group 2 loans declined, negative formation rates, coverage improved.
-  - **VAB** – NPL ratio fell to 0.63% (from 1.37%), coverage surged to 150.2%, though group 2 loans spiked (latent risk).
-  - **SSB** – NPL and group 2 ratios stable-to-improving, negative formation, coverage at 81.8%.
-- **Most deteriorated:**  
-  - **OCB** – NPL ratio jumped to 3.9% (from 3.2%), new NPL formation 1.2%, coverage plunged to 35%.
-  - **VPB** – NPL ratio up to 4.7%, new NPL formation 1.7%, coverage fell to 47.4%.
-  - **TPB** – NPL ratio up to 2.27% (from 1.52%), new formation 0.94%, coverage dropped to 57.1%.
-  - **SGB** – NPL up to 3.3%, group 2 loans 5.7%, coverage at 31.6%, signaling rising risk.
----
-**Insufficient data available:** None – all categories are covered with specific bank examples.
----
-**Summary:**  
-1Q25 is marked by sector-wide NIM compression, profit normalization, and rising asset quality risks. While a few banks (SSB, KLB, NVB) delivered standout growth or profit surprises, the broader trend is one of caution, with aggressive loan growth often coming at the expense of credit quality and margins. Asset quality bifurcation is emerging as a key theme, and investors should closely monitor coverage ratios and new NPL formation in the coming quarters.</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>45874.72844739584</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2Q25</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>## 1. KEY CHANGES SUMMARY
-- **Overall Banking Sector Performance &amp; Market Conditions**
-  - The sector saw a broad-based improvement in profitability and topline growth in 2Q25, with several banks reporting strong sequential rebounds after a challenging 2024.
-  - Loan growth was generally robust, but momentum diverged: some banks accelerated lending aggressively, while others saw a sharp slowdown or stagnation.
-  - Net interest margins (NIMs) showed mixed trends: some banks managed to stabilize or improve margins, while others continued to face compression due to funding cost pressures and competitive lending.
-  - Asset quality was a key differentiator: while several banks reported improvements in NPL ratios and coverage, others saw deterioration and rising credit risk.
-  - Provision expenses generally trended lower, supporting profit recovery, but coverage ratios remain below sector averages for some banks, highlighting ongoing risk.
-- **Common Themes &amp; Patterns Across Bank Types**
-  - **Private Banks (TCB, VPB, LPB):** Showed strong loan growth and profit recovery, but with varying success in margin management and asset quality stabilization.
-  - **Smaller/Non-listed Banks (KLB, PGB):** Delivered outsized profit rebounds and topline growth, but with more volatility in loan growth and asset quality metrics.
-  - **Sector-wide:** The gap between leaders and laggards is widening, with execution on risk management and margin discipline emerging as key differentiators.
----
-## 2. SENTIMENT ANALYSIS &amp; NOTABLE BANKS
-- **Overall Sector Sentiment:**  
-  - **Positive to Cautiously Optimistic:** Most banks reported strong profit rebounds and topline growth, but concerns linger around margin compression and asset quality for select names.
-- **Banks with Most Positive Developments:**
-  - **KLB:**  
-    - Standout profit growth (PBT +58.4% QoQ, +67.2% YoY), record-high ROE (25.7%), and improved asset quality (NPL down to 1.96%, coverage up to 82.8%).
-    - Margin stability and disciplined cost control underpin sustainable performance.
-  - **TCB:**  
-    - Strong sequential rebound in topline and profit, with loan growth (7.0% QoQ) and NIM (3.8%) outpacing peers.
-    - Asset quality remains a bright spot (NPL 1.26%, coverage 1.07x), and risk management is effective.
-  - **VPB:**  
-    - Sharp profit turnaround (PBT +23.9% QoQ, +38.3% YoY), aggressive loan growth (13.8% QoQ), and improving asset quality (NPL down to 4.0%).
-- **Banks with Most Concerning Issues:**
-  - **PGB:**  
-    - Despite profit rebound, asset quality deteriorated (NPL up to 3.33%, coverage down to 35.6%), and loan growth stalled (flat QoQ).
-    - Rising credit risk and margin pressure threaten future earnings.
-  - **LPB:**  
-    - Profitability metrics declined (ROA 1.9%, ROE 22.1%), loan growth slowed (4.7% QoQ), and NPL coverage remains below sector average (75.3%).
----
-## 3. SIGNIFICANT BANK CHANGES BY TOPIC
-**Net Interest Margin (NIM) &amp; Profitability:**
-- **Most improved:**  
-  - **KLB**  
-    - PBT surged 58.4% QoQ and 67.2% YoY; ROE soared to 25.7% (from 16.9%); NIM held steady at 3.97% despite yield compression, reflecting strong cost control and revenue growth.
-- **Most concerning:**  
-  - **VPB**  
-    - NIM compressed further to 5.3% (down 56bps QoQ) despite aggressive loan growth, indicating margin squeeze from competitive lending and asset mix shifts.
-**Credit Growth &amp; Lending:**
-- **Strongest growth:**  
-  - **VPB**  
-    - Loan book up 13.8% QoQ (vs. sector’s 4.2%), YTD +20.0%, reflecting aggressive expansion and market share gains.
-- **Weakest/declining:**  
-  - **PGB**  
-    - Loan growth stalled at +0.1% QoQ after a strong 1Q25, lagging sector average and signaling loss of momentum.
-**Asset Quality &amp; Risk Management:**
-- **Most improved:**  
-  - **KLB**  
-    - NPL ratio improved to 1.96% (from 2.17%), group 2 loans down, and NPL coverage hit a record 82.8%, well above sector norms.
-- **Most deteriorated:**  
-  - **PGB**  
-    - NPL ratio rose to 3.33% (from 2.71%), group 2 loans remained elevated, and NPL coverage fell to 35.6%, signaling rising credit risk and insufficient provisioning.
----
-**Insufficient data available:** None – all categories are supported by the provided comments.</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>45874.72811203704</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2Q25</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
         <is>
           <t>## 1. KEY CHANGES SUMMARY
 - **Overall Banking Sector Performance and Market Conditions:**
-  - The Vietnamese banking sector in 2Q25 showed mixed performance, with a general trend of profitability recovery driven by strong loan growth, although net interest margins (NIM) remained under pressure.
-  - Asset quality showed signs of improvement in several banks, but some banks still faced rising non-performing loans (NPLs) and lower coverage ratios.
-  - Provision expenses varied significantly, with some banks experiencing spikes due to deteriorating asset quality, while others benefited from reduced credit costs.
+  - The Vietnamese banking sector in 2Q25 demonstrated a mixed performance, with many banks showing a rebound in profitability after a challenging 1Q25. However, margin pressures and asset quality concerns persisted across the board.
+  - Loan growth was generally strong, indicating robust credit demand, but net interest margins (NIM) remained under pressure due to competitive pricing and rising funding costs.
+  - Asset quality showed mixed trends, with some banks improving their NPL ratios and coverage, while others faced rising credit costs and deteriorating asset quality.
 - **Common Themes and Patterns Across Different Bank Types:**
-  - **Private Banks:** Generally exhibited strong loan growth and profitability recovery, but faced NIM compression due to competitive lending and funding cost pressures.
-  - **State-Owned Commercial Banks (SOCBs):** Showed mixed results with some banks like BID facing deteriorating asset quality, while others like VCB maintained robust asset quality.
-  - **Smaller Private Banks:** Displayed significant variability in performance, with some like ABB showing strong rebounds in profitability and asset quality, while others like BVB faced sharp deterioration in asset quality and profitability.
+  - **Private Banks:** Generally showed strong loan growth and profitability rebounds, but faced significant NIM compression and asset quality concerns.
+  - **State-Owned Commercial Banks (SOCBs):** Displayed a recovery in profitability, but asset quality issues and margin pressures were more pronounced.
+  - **Smaller/Regional Banks:** Experienced significant variability in performance, with some showing strong rebounds in profitability and asset quality improvements, while others struggled with rising NPLs and declining coverage ratios.
 ## 2. SENTIMENT ANALYSIS &amp; NOTABLE BANKS
-- **Overall Sector Sentiment:** Neutral to slightly positive, with strong loan growth and profitability recovery offset by ongoing margin pressures and mixed asset quality trends.
+- **Overall Sector Sentiment:** Neutral to slightly negative. While profitability rebounded for many banks, persistent margin compression and asset quality concerns tempered the overall sentiment.
 - **Banks with Most Positive Developments:**
-  - **ABB:** Delivered a significant turnaround in profitability with a 202.3% QoQ increase in net profit, driven by robust loan growth and improved asset quality.
-  - **SHB:** Showed a strong earnings recovery with a 70.3% QoQ increase in TOI and improved asset quality metrics.
-  - **NVB:** Demonstrated a clear inflection in business momentum with a 51.0% QoQ surge in TOI and significant improvements in asset quality.
+  - **ACB:** Demonstrated a strong earnings rebound with improved asset quality and effective risk management, despite margin pressures.
+  - **SHB:** Delivered a significant turnaround in profitability with robust loan growth and improved asset quality, driven by a sharp recovery in NIM.
+  - **ABB:** Showed a substantial profitability turnaround with strong loan growth and improved asset quality metrics.
 - **Banks with Most Concerning Issues:**
-  - **BVB:** Experienced a sharp decline in profitability with an 83.5% QoQ drop in pre-tax profit, driven by rising credit costs and deteriorating asset quality.
-  - **NAB:** Faced rising NPLs and a notable drop in coverage, signaling potential future risk costs despite strong loan growth.
-  - **SGB:** Continued to struggle with asset quality pressures and contracting loan growth, indicating persistent challenges.
+  - **BVB:** Faced a sharp deterioration in profitability and asset quality, with rising NPLs and lower coverage ratios.
+  - **PGB:** Despite a profitability rebound, faced stalling loan growth and deteriorating asset quality, raising caution on future credit costs.
+  - **NAB:** Experienced rising credit costs and margin compression, with deteriorating asset quality trends signaling potential future risks.
 ## 3. SIGNIFICANT BANK CHANGES BY TOPIC
-**Net Interest Margin (NIM) &amp; Profitability:**
-- **Most Improved: ABB** - Achieved a 202.3% QoQ increase in net profit with NIM edging up to 1.95%, driven by improved loan yields and robust TOI growth.
-- **Most Concerning: BVB** - Despite a modest NIM recovery to 2.4%, profitability collapsed with an 83.5% QoQ drop in pre-tax profit due to rising provision expenses.
-**Credit Growth &amp; Lending:**
-- **Strongest Growth: ABB** - Loan growth surged 17.0% QoQ, significantly outpacing sector trends and driving a strong revenue trajectory.
-- **Weakest/Declining: SGB** - Loan book contracted by 3.1% QoQ, marking a second consecutive quarter of decline, reflecting ongoing risk aversion or weak demand.
-**Asset Quality &amp; Risk Management:**
-- **Most Improved: NVB** - NPL ratio fell to 11.4% from 14.0% QoQ, with coverage rising to 13.0%, indicating effective risk management and a reduction in tail risk.
-- **Most Deteriorated: BVB** - NPL ratio increased to 3.8% from 3.4% QoQ, with coverage dropping to 40.4%, signaling renewed credit stress and weaker loss absorption capacity.</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+- **Net Interest Margin (NIM) &amp; Profitability:**
+  - **Most Improved:** ABB - Achieved a significant turnaround in profitability with a 202.3% QoQ increase in net profit, supported by a strong rebound in TOI and improved NIM.
+  - **Most Concerning:** BVB - Despite a TOI rebound, faced an 83.5% QoQ collapse in pre-tax profit due to a spike in provision expenses and intensifying credit costs.
+- **Credit Growth &amp; Lending:**
+  - **Strongest Growth:** VPB - Achieved a 13.8% QoQ and 20.0% YTD increase in loan growth, significantly outpacing sector averages.
+  - **Weakest/Declining:** SGB - Experienced a 3.1% QoQ contraction in loan growth, marking a second consecutive quarter of decline.
+- **Asset Quality &amp; Risk Management:**
+  - **Most Improved:** NVB - Reduced NPL ratio from 14.0% to 11.4% QoQ, with improved coverage and effective risk management.
+  - **Most Deteriorated:** BVB - NPL ratio rose to 3.8% from 3.4% QoQ, with declining coverage ratios indicating renewed credit stress.
+- **Insufficient data available** for any additional categories not covered above.</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>26</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>45874.7423742439</v>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="D6" s="2" t="n">
+        <v>45874.74889385173</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>success</t>
         </is>

--- a/Data/quarterly_analysis_results.xlsx
+++ b/Data/quarterly_analysis_results.xlsx
@@ -473,41 +473,75 @@
       <c r="B2" t="inlineStr">
         <is>
           <t>## 1. KEY CHANGES SUMMARY
-- **Overall Banking Sector Performance and Market Conditions:**
-  - The Vietnamese banking sector in 2Q24 showed mixed performance with strong loan growth across many banks, but profitability was under pressure due to margin compression and rising provision expenses.
-  - Asset quality showed divergent trends, with some banks improving coverage and reducing NPLs, while others faced rising credit risks.
-- **Common Themes and Patterns Across Different Bank Types:**
-  - **Private Banks:** Many private banks experienced robust loan growth and profitability rebounds, but faced challenges with margin compression and asset quality concerns.
-  - **State-Owned Commercial Banks (SOCBs):** SOCBs like BID and VCB showed strong loan growth but struggled with margin pressure and profitability declines.
-  - **Smaller Banks:** Smaller banks like NAB and BVB showed significant rebounds in profitability and asset quality improvements, signaling effective risk management.
+**Overall Banking Sector Performance &amp; Market Conditions**
+- **Growth Rebound:** 2Q24 saw a broad-based rebound in loan growth and profitability across the sector, with most banks reporting sequential improvements in lending volumes and topline income.
+- **Margin Pressure Persists:** Despite topline growth, Net Interest Margins (NIMs) generally remained under pressure or only modestly recovered, reflecting ongoing loan yield compression and competitive pricing.
+- **Asset Quality Divergence:** Asset quality trends diverged: while some banks showed stabilization or improvement in NPLs and coverage, others reported rising NPLs, group 2 loans, and declining coverage ratios.
+- **Provisioning &amp; Risk Costs:** Provision expenses were a key swing factor—some banks benefited from lower risk costs, supporting profits, while others saw a spike in provisions, weighing on bottom lines.
+- **Profitability Recovery:** Several banks posted strong profit rebounds, driven by loan growth, margin recovery, and/or lower provisions, but a few saw profits stall or decline due to margin compression and rising risk costs.
+**Common Themes &amp; Patterns Across Bank Types**
+- **Private Banks:** Generally outperformed in loan growth and profitability rebounds (e.g., MBB, VPB, TCB, KLB), but asset quality risks are more pronounced at some (e.g., VPB, VIB, NVB).
+- **SOCBs:** Showed robust loan growth (VCB, BID, CTG), but profitability and NIMs remain below sector averages; asset quality is mixed, with VCB showing improvement and others (BID, CTG) facing mild deterioration.
+- **Smaller/Regional Banks:** Highly variable performance—some (KLB, NAB, ABB, VBB) delivered strong rebounds in growth and profitability, while others (NVB, BAB, SGB) struggled with asset quality and margin issues.
+- **Sector-wide Watchpoints:** Margin compression, rising early-stage delinquencies, and declining NPL coverage ratios are recurring concerns across many banks.
+---
 ## 2. SENTIMENT ANALYSIS &amp; NOTABLE BANKS
-- **Overall Sector Sentiment:** Neutral to slightly positive, with strong loan growth but offset by margin pressures and mixed asset quality trends.
-- **Banks with Most Positive Developments:**
-  - **MBB:** Delivered a strong rebound with improved asset quality and profitability, outpacing sector growth.
-  - **KLB:** Showed significant profitability and loan growth, with improved asset quality metrics.
-  - **NAB:** Demonstrated robust topline and profit growth with improving asset quality, marking a positive surprise.
-- **Banks with Most Concerning Issues:**
-  - **NVB:** Despite a profit rebound, faced significant asset quality deterioration with high NPLs and low coverage ratios.
-  - **BAB:** Experienced a sharp slowdown in profitability and worsening asset quality, with NPLs and coverage ratios at concerning levels.
-  - **VIB:** Saw a drop in profitability and asset quality, with rising provisions and declining coverage ratios.
+**Overall Sector Sentiment:**  
+- **Neutral to Cautiously Positive:** The tone is broadly constructive, with many banks rebounding in growth and profits, but tempered by persistent margin pressure and emerging asset quality risks.
+**Banks with Most Positive Developments**
+- **MBB:** Standout rebound in profitability (+31.7% QoQ PBT), double-digit loan growth (9.9% QoQ), sharp NIM recovery (4.6% from 4.0%), and improved asset quality (NPL down to 1.6%).
+- **TCB:** Consistent sector-leading topline growth (+43.9% YoY TOI), NIM expansion (4.7%), and stable asset quality (NPL 1.2%, high coverage).
+- **KLB:** Exceptional profit and loan growth (TOI +41% QoQ, loans +6.5% QoQ), NIM surge (4.5%), and improved asset quality (NPL down to 2.0%, coverage up).
+- **NAB:** Strong profit and loan growth (PBT +21.7% QoQ, loans +6.6% QoQ), NIM rebound (4.1%), and asset quality improvement (NPL down to 2.6%).
+- **SSB:** Standout profit and margin growth (TOI +22.1% QoQ, NIM 4.2%), stable asset quality, and strong topline momentum.
+**Banks with Most Concerning Issues**
+- **NVB:** Severe asset quality deterioration (NPL 35.3%, coverage only 5.1%), despite profit rebound; aggressive loan growth at the expense of risk.
+- **BAB:** Profitability collapse (PBT -39.9% QoQ), sharp asset quality deterioration (NPL up to 1.48%, coverage at multi-year low 0.86x).
+- **VIB:** Profit and margin under pressure (PBT -15.9% QoQ, NIM at multi-year low 3.8%), asset quality fragile (NPL up, coverage down to 48.1%).
+- **VPB:** While profit surged, asset quality is deteriorating (NPL formation up to 2.0%, coverage down to 48.1%), raising future risk costs.
+- **OCB:** Profitability weakened (PBT -26% QoQ), loan growth stalled, and asset quality showing early signs of slippage (NPL up to 3.1%).
+---
 ## 3. SIGNIFICANT BANK CHANGES BY TOPIC
-- **Net Interest Margin (NIM) &amp; Profitability:**
-  - **Most Improved:** MBB - Achieved a sharp rebound in NIM to 4.6% from 4.0%, driven by improved funding costs and asset mix, alongside a 31.7% QoQ profit surge.
-  - **Most Concerning:** VIB - NIM fell to a multi-year low of 3.8% from 4.3%, with profitability dropping due to rising provisions and weaker core revenue.
-- **Credit Growth &amp; Lending:**
-  - **Strongest Growth:** NAB - Accelerated loan growth to 6.6% QoQ, pushing YTD expansion to 10.6%, well above sector pace.
-  - **Weakest/Declining:** OCB - Loan growth stalled at 1.0% QoQ, following a robust 1Q24, indicating a loss of momentum.
-- **Asset Quality &amp; Risk Management:**
-  - **Most Improved:** MBB - NPL ratio dropped to 1.6% from 2.5%, with improved coverage ratios, signaling effective risk management.
-  - **Most Deteriorated:** NVB - NPL ratio spiked to 35.3% from 28.9%, with coverage falling to 5.1%, highlighting significant credit risk exposure.
-- **Insufficient Data Available:** None. All categories have sufficient data for analysis.</t>
+### Net Interest Margin (NIM) &amp; Profitability
+- **Most Improved:**
+  - **MBB:** NIM rebounded to 4.6% (from 4.0%), PBT up 31.7% QoQ, ROA/ROE now above sector averages; driven by margin recovery and risk cost containment.
+  - **KLB:** NIM surged to 4.5% (from 3.1%), TOI up 41% QoQ, PBT up 57.9% QoQ; robust revenue and margin expansion.
+  - **SSB:** NIM jumped to 4.2% (up 1ppt QoQ), TOI up 22.1% QoQ, PBT up 15% QoQ; margin and profit acceleration.
+- **Most Concerning:**
+  - **VIB:** NIM fell to a multi-year low of 3.8% (from 4.3%), PBT down 15.9% QoQ, ROA/ROE at lowest in over a year; margin squeeze and rising provisions.
+  - **BAB:** Profitability collapsed (PBT -39.9% QoQ), NIM up but driven by lower funding costs, not healthier loan pricing; core income weak.
+  - **OCB:** PBT down 26% QoQ, TOI flat, NIM only modestly up despite yield compression; profit trajectory broken.
+### Credit Growth &amp; Lending
+- **Strongest Growth:**
+  - **NVB:** Loan growth +10.0% QoQ, YTD +16.2%; aggressive expansion, but with significant asset quality risks.
+  - **ABB:** Loan growth rebounded +15.1% QoQ after prior contraction; strong business expansion.
+  - **MBB:** Loan growth +9.9% QoQ, YTD +10.5%; outpacing sector, underpins profit rebound.
+  - **VBB:** Loan growth +9.1% QoQ, YTD +10.0%; strong lending push and margin recovery.
+- **Weakest/Declining:**
+  - **OCB:** Loan growth stalled at +1.0% QoQ after strong 1Q24; momentum faded.
+  - **BAB:** Loan growth only +1.5% QoQ, still trailing sector; topline growth stalled.
+  - **SGB:** Loan growth +2.9% QoQ, YTD just +1.7%; below sector average, slow recovery.
+### Asset Quality &amp; Risk Management
+- **Most Improved:**
+  - **MBB:** NPL ratio dropped to 1.6% (from 2.5%), group 2 loans down, coverage rebuilt to 1.02x; reversal of prior deterioration.
+  - **KLB:** NPL down to 2.0% (from 2.5%), group 2 loans down, coverage up to 69.8%; net recoveries and risk discipline.
+  - **NAB:** NPL down to 2.6% (from 2.7%), group 2 loans down, coverage up to 47.2%; strong risk management.
+  - **VCB:** NPL down to 1.20%, group 2 loans down, coverage rebuilt to 212% (well above sector).
+- **Most Deteriorated:**
+  - **NVB:** NPL ratio spiked to 35.3% (from 28.9%), group 2 up, coverage collapsed to 5.1%; severe credit risk.
+  - **BAB:** NPL up to 1.48% (from 1.11%), group 2 and formation spiked, coverage at 0.86x (multi-year low).
+  - **VPB:** NPL formation surged to 2.0%, coverage slipped to 48.1%; rising risk costs.
+  - **VIB:** NPL up to 3.7%, coverage down to 48.1%; persistent asset quality vulnerability.
+  - **PGB:** NPL up to 3.53% (from 2.93%), NPL formation at 0.85% (highest in six quarters).
+---
+**If further granularity is needed by bank size or segment, or for additional metrics, please specify.**</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>27</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45874.75007532755</v>
+        <v>45874.75784799524</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -524,40 +558,109 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>## 1. KEY CHANGES SUMMARY
-- **Overall Banking Sector Performance and Market Conditions:**
-  - The Vietnamese banking sector in 3Q24 experienced mixed performance, with profitability generally under pressure due to margin compression and elevated provision expenses.
-  - Loan growth remained positive overall, but the pace varied significantly across banks, with some showing robust expansion while others experienced a slowdown.
-  - Asset quality showed a mixed picture, with some banks improving coverage and reducing NPLs, while others faced rising credit risks.
-- **Common Themes and Patterns Across Different Bank Types:**
-  - **State-Owned Commercial Banks (SOCBs):** Generally faced challenges with profitability due to increased provision expenses and margin compression, despite some maintaining positive loan growth.
-  - **Private Banks:** Showed varied performance, with some like VBB and VPB delivering strong profitability and asset quality improvements, while others like ABB and NVB struggled with profitability and rising credit risks.
-  - **Sector-Wide Trends:** Margin compression was a common issue across the board, driven by competitive lending environments and shifts toward lower-yielding assets.
+**Overall Banking Sector Performance and Market Conditions**
+- **Profitability under pressure:** Most banks reported sequential declines in profitability, with margin compression and higher provision expenses as common drags. Only a few banks bucked the trend with profit rebounds, often due to sharply lower provisions rather than core income growth.
+- **Margin compression widespread:** Net interest margin (NIM) contraction was nearly universal, driven by falling loan yields amid competitive lending and asset repricing. Funding cost relief was limited.
+- **Loan growth diverging:** While some banks (notably TPB, TCB, VIB, BVB, NAB) posted strong QoQ loan growth, others (ACB, LPB, NVB, PGB, SGB) saw marked slowdowns or near-stagnation.
+- **Asset quality mixed:** Several banks reported stable or improved NPL and group 2 ratios (e.g., STB, SSB, VAB, VBB), but others (MBB, OCB, BVB, SGB, VIB) saw rising NPLs and/or declining coverage ratios, signaling mounting credit risk.
+- **Provisioning volatility:** Provision expenses spiked at many banks (OCB, SGB, SSB, PGB), directly impacting profits, while others (VPB, BAB, VCB) benefited from sharply lower risk costs.
+- **Sector bifurcation:** Larger, better-capitalized banks (VCB, TCB, STB) generally managed asset quality and margins better, while smaller and mid-sized banks (ABB, NVB, BVB, SGB) faced more volatility and risk.
+**Common Themes and Patterns Across Bank Types**
+- **SOCBs:** Generally stable asset quality (VCB, CTG), but profitability often provision-driven and margins under pressure. BID an outlier with both asset quality and profitability deteriorating.
+- **Private_1:** Mixed results; some (STB, TCB, VPB) showed resilience in topline or asset quality, while others (MBB, ACB) saw negative inflections in profitability and risk metrics.
+- **Private_2:** Margin and asset quality pressures pronounced (OCB, MSB, VIB), with only a few (HDB, EIB) maintaining positive trends.
+- **Private_3:** Highly volatile; some (VBB, VAB, BAB) posted strong rebounds or asset quality gains, while others (ABB, NVB, BVB, SGB) suffered sharp profit reversals and/or asset quality slippage.
+---
 ## 2. SENTIMENT ANALYSIS &amp; NOTABLE BANKS
-- **Overall Sector Sentiment:** Neutral to Negative
-  - The sentiment is mixed, with profitability pressures and margin compression weighing on the sector, despite some positive developments in loan growth and asset quality for certain banks.
-- **Banks with Most Positive Developments:**
-  - **VBB:** Delivered strong profitability and topline growth, outpacing sector trends with robust earnings leverage and effective risk management.
-  - **VPB:** Achieved a significant profitability beat with strong topline growth and improved asset quality, marking a positive surprise.
-- **Banks with Most Concerning Issues:**
-  - **ABB:** Faced a sharp reversal in profitability with net losses and negative returns, driven by a collapse in core income and higher risk provisioning.
-  - **NVB:** Experienced a sharp reversal in profitability with net losses, stalled loan growth, and thin coverage ratios, indicating elevated risk.
+**Overall Sector Sentiment**
+- **Leaning negative/neutral:** The majority of banks reported sequential declines in profitability, margin compression, and/or rising credit risk. Positive surprises were rare and often driven by one-off provision reversals rather than sustainable core income growth.
+**Banks with Most Positive Developments**
+- **VBB:** Standout profit and topline growth (+21.6% QoQ PBT, +119.3% YoY TOI), resilient NIM, and improved asset quality/coverage. Outperformed sector on all key metrics.
+- **VPB:** Strong profitability beat (+15.5% QoQ, +66.4% YoY PBT), asset quality improved (NPL down to 4.8%, coverage up), and risk costs fell sharply.
+- **STB:** Sustained topline/profit growth, margin stability (NIM up to 3.63%), and improved coverage despite higher provisions.
+- **TCB:** Maintained robust loan growth (+5.7% QoQ, +20.6% YTD), stable asset quality, and high coverage, though profitability softened.
+- **VAB:** Strong loan growth (+4.8% QoQ), sharp asset quality improvement (NPL down to 1.7%, coverage up to 70.3%), despite margin pressure.
+- **BAB:** Profit rebound (+33.4% QoQ, +151.8% YoY PBT), improved asset quality, and lower provisions.
+**Banks with Most Concerning Issues**
+- **ABB:** Sharp profit reversal (swung to net loss), topline collapse (-46.1% QoQ), and margin compression, despite asset quality gains.
+- **NVB:** Returned to net loss, stalled loan growth, and very weak NPL coverage (5.8%), keeping risk high.
+- **BVB:** Profitability collapsed (-65% QoQ PBT), NPLs spiked to 4.7%, and coverage fell to 32.7%.
+- **OCB:** Profit plunged (-51% QoQ), surging provisions, rising NPLs (3.2%), and weak coverage (53.9%).
+- **SGB:** Profit fell (-52.3% QoQ), NPLs rose, coverage weakened, and provisions quadrupled.
+- **VIB:** Profitability and margins under sustained pressure, NPLs rising (3.9%), and coverage at multi-year lows (47.1%).
+- **MBB:** Margin and asset quality headwinds intensified; NPL coverage dropped sharply to 68.8%.
+---
 ## 3. SIGNIFICANT BANK CHANGES BY TOPIC
-- **Net Interest Margin (NIM) &amp; Profitability:**
-  - **Most Improved:** VPB - Achieved a strong profitability beat with a 15.5% QoQ increase in PBT, driven by robust topline growth and sharply lower provision expenses.
-  - **Most Concerning:** ABB - Suffered a sharp reversal in profitability with a 46.1% QoQ drop in TOI and net losses, driven by a collapse in core income and higher risk provisioning.
-- **Credit Growth &amp; Lending:**
-  - **Strongest Growth:** VBB - Delivered strong loan growth with a 13.5% YTD increase, outpacing the sector and supported by stable NIM and disciplined pricing.
-  - **Weakest/Declining:** NVB - Loan growth stalled with just a 0.3% QoQ increase, well below the sector's 4.3%, indicating a loss of growth momentum.
-- **Asset Quality &amp; Risk Management:**
-  - **Most Improved:** VAB - Achieved sharp improvements in asset quality with NPL and group 2 ratios dropping significantly, and coverage ratios hitting multi-year highs.
-  - **Most Deteriorated:** BVB - Faced rising NPLs with a jump to 4.7% and weakened coverage ratios, signaling increased credit risk and exposure to future losses.</t>
+### Net Interest Margin (NIM) &amp; Profitability
+- **Most improved:**  
+  - **VPB**  
+    - PBT up +15.5% QoQ and +66.4% YoY, driven by strong TOI growth and sharply lower provisions.
+    - Asset quality improved (NPL down to 4.8%, coverage up to 50.7%).
+    - NIM remains high at 5.8% (despite compression), supporting revenue.
+  - **VBB**  
+    - PBT up +21.6% QoQ and +625.6% YoY, TOI up +6.9% QoQ and +119.3% YoY.
+    - NIM stable at 2.36% (multi-year high), ROA/ROE well above sector.
+- **Most concerning:**  
+  - **ABB**  
+    - TOI collapsed -46.1% QoQ, PBT swung to loss (-VND 343bn), NIM compressed to 1.9%.
+    - Negative ROA/ROE, high volatility, and earnings fragility.
+  - **OCB**  
+    - PBT plunged -51% QoQ, provision expenses doubled, NIM edged down, and core income stalled.
+---
+### Credit Growth &amp; Lending
+- **Strongest growth:**  
+  - **TPB**  
+    - Loan growth +10.0% QoQ (sector: 4.3%), fastest in over a year, YTD +14.3%.
+    - Aggressive market share capture.
+  - **VIB**  
+    - Loan growth +6.6% QoQ, YTD +11.5%, fastest pace in over a year.
+  - **BVB**  
+    - Loan growth +7.5% QoQ, YTD +10.8%, fastest in over a year.
+  - **TCB**  
+    - Loan growth +5.7% QoQ, +20.6% YTD, outpacing sector.
+- **Weakest/declining:**  
+  - **NVB**  
+    - Loan growth stalled at +0.3% QoQ after double-digit 2Q24, YTD plateaued.
+  - **PGB, SGB, LPB, ACB**  
+    - PGB: Loan growth +0.5% QoQ, YTD +4.3% (well below sector).
+    - SGB: Loan growth +0.5% QoQ, YTD +2.1%.
+    - LPB: Loan growth slowed to +0.6% QoQ from +3.1% in 2Q24.
+    - ACB: Loan growth decelerated to +0.81% QoQ from +8.7% in 2Q24.
+---
+### Asset Quality &amp; Risk Management
+- **Most improved:**  
+  - **VAB**  
+    - NPL ratio dropped sharply to 1.7% (from 2.5%), NPL and G2 formation negative, coverage surged to 70.3% (multi-year high).
+  - **BAB**  
+    - NPL fell to 1.33% (from 1.48%), G2 loans down, coverage rebounded to 97.7%.
+  - **STB**  
+    - NPL coverage climbed to 75% (highest in over a year), NPL formation slowed, asset quality stable.
+  - **VBB**  
+    - NPL and G2 ratios declined, coverage up to 37.7%, effective risk controls.
+  - **SSB**  
+    - NPL and G2 ratios improved, coverage rebounded to 80.8%.
+- **Most deteriorated:**  
+  - **BVB**  
+    - NPL ratio spiked to 4.7% (from 3.8%), coverage fell to 32.7%, new NPL formation high.
+  - **OCB**  
+    - NPL up to 3.2%, G2 formation doubled, coverage at 53.9%, provisions surged.
+  - **MBB**  
+    - NPL up to 2.2% (from 1.6%), G2 up to 1.9%, coverage dropped sharply to 68.8%.
+  - **SGB**  
+    - NPL up to 2.85% (from 2.55%), coverage fell to 33.5%, new NPL formation accelerated.
+  - **VIB**  
+    - NPL up to 3.9%, NPL formation 0.7%, coverage at multi-year low (47.1%).
+  - **NVB**  
+    - Coverage remains very weak at 5.8%, despite NPL ratio improvement.
+---
+**Insufficient data available:** None—sufficient detail provided for all categories.</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>27</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45874.74962978176</v>
+        <v>45874.75734580588</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -574,46 +677,73 @@
       <c r="B4" t="inlineStr">
         <is>
           <t>## 1. KEY CHANGES SUMMARY
-- **Overall Banking Sector Performance and Market Conditions:**
-  - The Vietnamese banking sector in 4Q24 experienced mixed performance, with several banks showing strong growth in loan portfolios and operating income, while others faced profitability challenges due to margin compression and elevated provision expenses.
-  - A common theme was the robust loan growth across many banks, indicating strong credit demand, although this was often accompanied by pressure on net interest margins (NIM) due to competitive lending rates and asset repricing.
-- **Common Themes and Patterns Across Different Bank Types:**
-  - **State-Owned Commercial Banks (SOCBs):** Generally showed strong loan growth and improved asset quality, but faced margin compression and rising operational costs, impacting profitability.
-  - **Private Banks:** Exhibited varied performance; some private banks like MBB and VPB showed strong profitability and asset quality improvements, while others like TCB and NVB faced significant challenges in profitability and core income.
-  - **Smaller/Regional Banks:** Displayed significant volatility, with some banks like BVB and KLB showing strong rebounds in profitability and asset quality, while others like SGB and NVB faced severe profitability and asset quality issues.
+**Overall Banking Sector Performance &amp; Market Conditions**
+- **Strong topline and loan growth rebound:** Most banks reported a sharp recovery in total operating income (TOI) and loan growth in 4Q24, reversing mid-year softness. Sequential loan growth often exceeded sector averages, with several banks posting double-digit QoQ expansion.
+- **Margin compression persists:** Despite topline gains, net interest margin (NIM) pressure is a clear sector-wide theme. Most banks reported further NIM contraction due to falling loan yields, competitive pricing, and a shift to lower-yield assets.
+- **Asset quality stabilization, but risks remain:** Asset quality generally improved, with declining NPL and group 2 loan ratios at many banks. However, coverage ratios remain mixed, and some banks saw renewed NPL formation or only technical improvements.
+- **Profitability mixed:** While many banks posted strong profit rebounds (often driven by lower provisions), others saw flat or negative profit growth due to margin squeeze or surging risk costs. Reliance on provision reversals for profit is a concern.
+- **Divergence by bank type:** Large private banks (e.g., MBB, VPB, MSB) and some SOCBs (e.g., CTG, BID) outperformed on growth and profitability. Smaller/weak private banks (e.g., NVB, SGB) struggled with profitability and asset quality.
+**Common Themes &amp; Patterns**
+- **Provision swings drive earnings volatility:** Many banks’ profit beats were due to sharp drops or reversals in provision expenses rather than sustainable core income growth.
+- **Aggressive loan growth at select banks:** Several banks (e.g., VPB, MBB, TPB, BVB) aggressively expanded lending, often outpacing sector averages.
+- **Asset quality optics improved, but coverage gaps persist:** While NPL ratios fell at most banks, coverage ratios remain below sector averages at many, leaving some exposed to future credit losses.
+- **Cost and margin headwinds:** Rising operating costs and persistent NIM compression are capping profit growth, even as topline recovers.
+- **Technical improvements vs. real risk reduction:** Some banks’ asset quality improvements were driven by technical factors (write-offs, reclassification) rather than genuine credit improvement.
+---
 ## 2. SENTIMENT ANALYSIS &amp; NOTABLE BANKS
-- **Overall Sector Sentiment:**
-  - The overall sentiment for the sector is mixed, with positive developments in loan growth and asset quality improvements for some banks, but concerns over profitability and margin compression for others.
-- **Banks with Most Positive Developments:**
-  - **MBB:** Delivered strong growth in TOI and profitability, with improved asset quality metrics, signaling renewed momentum and effective risk management.
-  - **VPB:** Achieved a significant rebound in profitability and loan growth, with improved asset quality, marking a positive surprise in earnings momentum.
-- **Banks with Most Concerning Issues:**
-  - **NVB:** Faced a sharp deterioration in profitability with a collapse in core income and severe margin pressure, signaling deep structural challenges.
-  - **SGB:** Experienced a steep drop in profitability and rising asset quality risks, with a significant increase in new NPL formation and margin compression.
+**Overall Sector Sentiment**
+- **Cautiously positive:** The tone is generally constructive, with notable rebounds in topline, loan growth, and asset quality at many banks. However, persistent margin compression, reliance on provision swings, and uneven profitability temper the optimism.
+**Banks with Most Positive Developments**
+- **MBB:** Standout performance with strong TOI/profit growth (+30.4% QoQ TOI, +10.7% QoQ PBT), robust loan growth (+10.7% QoQ), margin stability (NIM 4.2%), and marked asset quality improvement (NPL down to 1.6%, coverage up to 0.92x).
+- **VPB:** Sharp rebound in profit and topline (+17.1% QoQ TOI, +18.6% QoQ PBT), aggressive loan growth (+9.1% QoQ), margin recovery (NIM up to 6.0%), and improved asset quality (NPL down to 4.2%, coverage up to 56.2%).
+- **MSB:** Strong profit recovery (+65.2% QoQ PBT), margin expansion (NIM up to 4.2%), and improved asset quality (NPL down to 2.7%, coverage up to 64.1%).
+- **BVB:** Record-high profitability (ROA 0.66%, ROE 10.9%), strong loan growth (+6.5% QoQ), NIM expansion (3.15%), and sharp asset quality improvement (NPL down to 3.1%, coverage up to 45.3%).
+- **TPB:** Robust earnings turnaround (+28.2% QoQ TOI, +23.5% QoQ PBT), strong loan growth (+6.8% QoQ), and asset quality improvement (NPL down to 1.5%, coverage up to 81.3%).
+**Banks with Most Concerning Issues**
+- **NVB:** Severe profitability collapse (TOI loss, -VND 5.07tn PBT), negative NIM (-10.2%), technical asset quality improvement (NPL down to 19.5% but coverage only 8.6%), signaling deep structural issues.
+- **SGB:** Sharp drop in profitability (TOI -59.8% QoQ, negative PBT), margin collapse (NIM down to 0.7%), and rising asset quality risks (spike in NPL/group 2 formation).
+- **ABB:** Profit rebound masks underlying weakness—loan growth stalled (flat QoQ), asset quality deteriorated (NPL up to 3.7%, coverage down to 46.2%).
+- **TCB:** Marked drop in profitability (TOI -18.7% QoQ, PBT -34.9% QoQ), margin compression (NIM down to 3.8%), and profit flattered by provision write-backs rather than core growth.
+---
 ## 3. SIGNIFICANT BANK CHANGES BY TOPIC
-**Net Interest Margin (NIM) &amp; Profitability:**
-- **Most Improved:** 
-  - **MBB:** Achieved a significant rebound in profitability with a 30.4% QoQ increase in TOI and improved ROA and ROE, driven by strong loan growth and stable NIM.
-- **Most Concerning:** 
-  - **NVB:** Experienced a severe collapse in profitability with NIM turning negative at -10.2%, reflecting unsustainable business dynamics and severe margin pressure.
-**Credit Growth &amp; Lending:**
-- **Strongest Growth:** 
-  - **VPB:** Loan growth accelerated to 9.1% QoQ, pushing full-year expansion to 22.6%, well ahead of the sector, driven by a surge in loan expansion and margin recovery.
-- **Weakest/Declining:** 
-  - **ABB:** Loan growth stalled with balances flat QoQ (-0.05%), indicating a marked slowdown from previous quarters and lagging sector peers.
-**Asset Quality &amp; Risk Management:**
-- **Most Improved:** 
-  - **BVB:** Asset quality metrics improved markedly with NPL and group 2 ratios dropping and coverage ratios strengthening, signaling effective risk control.
-- **Most Deteriorated:** 
-  - **SGB:** Asset quality risks intensified with a spike in new NPL and group 2 loan formation, signaling rising credit risk and potential future provisioning needs.
-**Note:** If any category lacks sufficient data, it has been clearly stated as "Insufficient data available."</t>
+### Net Interest Margin (NIM) &amp; Profitability
+- **Most improved:**
+    - **MSB:** NIM jumped from 3.3% to 4.2% QoQ (highest in over a year), PBT more than doubled (+65.2% QoQ), ROA/ROE rebounded sharply.
+    - **BVB:** NIM expanded to a record 3.15% (from 2.0%), ROA/ROE at multi-year highs, driven by margin and volume gains.
+    - **VPB:** NIM recovered to 6.0% (from 5.8%), with strong profit and topline growth (+17.1% TOI, +18.6% PBT QoQ).
+- **Most concerning:**
+    - **NVB:** NIM collapsed to -10.2% (from 1.2%), TOI and PBT swung deeply negative, ROA/ROE at record lows.
+    - **SGB:** NIM fell sharply to 0.7% (from 3.3%), TOI plunged 59.8% QoQ, PBT turned negative.
+    - **TCB:** NIM compressed to 3.8% (from 4.2%), TOI and PBT dropped double digits, signaling earnings quality concerns.
+### Credit Growth &amp; Lending
+- **Strongest growth:**
+    - **VPB:** Loan growth +9.1% QoQ, +22.6% YTD—well ahead of sector.
+    - **MBB:** Loan growth +10.7% QoQ, +27.6% YTD, aggressive market share gains.
+    - **PGB:** Loan growth +11.9% QoQ, +16.7% YoY—triple sector pace.
+    - **NVB:** Loan growth +10.7% QoQ, +28.9% YTD (though at severe cost to profitability).
+- **Weakest/declining:**
+    - **ABB:** Loan growth stalled at -0.05% QoQ, +0.3% YoY, lagging sector.
+    - **VBB:** Loan growth slowed to +1.9% QoQ (from 3.2%), below sector average.
+    - **TCB:** Loan growth nearly stalled at +0.9% QoQ after strong earlier expansion.
+### Asset Quality &amp; Risk Management
+- **Most improved:**
+    - **MBB:** NPL ratio dropped to 1.6% (from 2.2%), group 2 loans down, negative formation, coverage up to 0.92x.
+    - **TPB:** NPL ratio fell to 1.5% (from 2.3%), group 2 loans down, coverage surged to 81.3%.
+    - **BVB:** NPL down to 3.1% (from 4.7%), coverage up to 45.3%, negative formation.
+    - **NAB:** NPL down to 2.3% (from 2.9%), coverage up to 52.8%, negative formation.
+- **Most deteriorated:**
+    - **NVB:** NPL ratio improved to 19.5% (from 30.6%) but due to technical factors; coverage only 8.6%, underlying risk remains high.
+    - **ABB:** NPL up to 3.7% (from 3.2%), group 2 loans up, coverage down to 46.2%.
+    - **SGB:** NPL and group 2 formation spiked, group 2 loans doubled to 5.0%, coverage still below sector average.
+---
+**If you need further breakdown by bank group (SOCB, Private_1, Private_2, Private_3), or a more granular asset quality table, please specify.**</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>27</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45874.74924927593</v>
+        <v>45874.75693546955</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -630,40 +760,69 @@
       <c r="B5" t="inlineStr">
         <is>
           <t>## 1. KEY CHANGES SUMMARY
-- **Overall Banking Sector Performance and Market Conditions:**
-  - The Vietnamese banking sector in 1Q25 experienced mixed performance with a general trend of profitability pressures due to declining net interest margins (NIM) and rising asset quality concerns.
-  - Loan growth was generally positive, with several banks outpacing sector averages, indicating robust lending activity despite profitability challenges.
-  - Asset quality showed signs of stress, with many banks reporting increased non-performing loans (NPLs) and group 2 loans, suggesting rising credit risk.
-- **Common Themes and Patterns Across Different Bank Types:**
-  - **State-Owned Commercial Banks (SOCBs):** Generally faced profitability pressures with declining NIMs and rising asset quality concerns. Loan growth was slower compared to private banks.
-  - **Private Banks:** Exhibited strong loan growth but faced significant NIM compression and asset quality deterioration. Some private banks managed to maintain profitability through aggressive lending and cost control.
-  - **Smaller/Regional Banks:** Showed volatility in earnings with some experiencing sharp rebounds in profitability due to provision cuts, while others faced margin and asset quality pressures.
+**Overall Banking Sector Performance &amp; Market Conditions**
+- **Profitability under Pressure:** Most banks reported sequential declines in total operating income (TOI) and profit before tax (PBT) after a strong 4Q24, with YoY growth more muted. Provision expense normalization and margin compression were common themes.
+- **Margin Squeeze Intensifies:** Net interest margin (NIM) compressed across the sector, with only a handful of banks bucking the trend. Margin pressure stemmed from falling loan yields, competitive pricing, and rising funding costs.
+- **Loan Growth Divergence:** While some banks accelerated lending (notably private banks), others saw sharp slowdowns or even contraction, reflecting divergent risk appetites and market positioning.
+- **Asset Quality Risks Rising:** Deterioration in non-performing loan (NPL) ratios and group 2 loans was widespread, with new NPL formation ticking up at many banks. Coverage ratios generally fell, exposing banks to higher future credit costs.
+- **Provision-Driven Profits:** Several banks’ profit resilience was driven more by sharply lower provision expenses than by core income growth, raising questions about earnings sustainability.
+- **Volatility &amp; Normalization:** The quarter was marked by normalization after an outsized 4Q24, with high volatility in topline and bottom-line metrics, especially among smaller and mid-sized banks.
+**Common Themes &amp; Patterns Across Bank Types**
+- **State-Owned Commercial Banks (SOCBs):** Generally showed slower loan growth, sharper margin compression, and emerging asset quality pressures, but retained robust coverage and lower NPLs (notably VCB).
+- **Large Private Banks (Private_1):** Mixed performance—some (MBB, STB, TCB) maintained strong profitability and loan growth, but others (VPB, ACB) saw sharp profit and margin declines, with asset quality risks rising.
+- **Mid-sized Private Banks (Private_2):** High loan growth (MSB, SHB, LPB) often came at the cost of margin and asset quality, with several banks reporting profit declines and rising NPLs.
+- **Smaller/Non-listed Banks (Private_3):** Highly volatile results, with some (SSB, KLB, NVB) delivering strong profit or loan growth surprises, while others (SGB, BVB, VBB) struggled with profitability, margin, and asset quality.
+---
 ## 2. SENTIMENT ANALYSIS &amp; NOTABLE BANKS
-- **Overall Sector Sentiment:** Neutral to negative, driven by profitability pressures, margin compression, and rising asset quality risks, despite strong loan growth in some banks.
-- **Banks with Most Positive Developments:**
-  - **SSB:** Delivered a dramatic surge in profitability with record gains in TOI and net profit due to strong topline growth and reduced provision expenses.
-  - **NVB:** Showed a sharp turnaround with positive profitability and improved asset quality, driven by robust loan growth and effective risk management.
-- **Banks with Most Concerning Issues:**
-  - **OCB:** Faced a sharp pullback in profitability with significant TOI and net profit declines due to margin compression and rising risk costs.
-  - **VIB:** Experienced a sharp drop in core income and continued margin compression, with rising asset quality stress and weakening coverage ratios.
+**Overall Sector Sentiment**
+- **Neutral to Negative:** The tone is cautious, with more banks reporting sequential declines in profitability, margin compression, and rising asset quality risks. While a few outliers posted strong results, the sector is broadly facing headwinds.
+**Banks with Most Positive Developments**
+- **SSB:** Delivered record profitability (TOI +80.8% QoQ, PBT +184.1% QoQ), sector-leading ROA (4.2%) and ROE (38.0%), with stable asset quality and robust coverage.
+- **KLB:** Surging loan growth (+10.7% QoQ), robust topline (+47.2% YoY), and stable profitability (ROA 1.2%, ROE 16.9%), though asset quality needs monitoring.
+- **NVB:** Sharp turnaround to profitability (PBT VND 151bn after prior loss), strong loan growth (+9.8% QoQ), and significant improvement in asset quality (NPL down to 14% from 19.5%).
+- **SHB:** Strong profit rebound (+73.4% QoQ), aggressive loan growth (+9.2% QoQ), and stable asset quality, though profit driven by provision relief.
+- **STB:** Robust topline growth (+5.2% QoQ, +13.4% YoY), loan growth outpacing sector, NIM rebound, and improved coverage.
+**Banks with Most Concerning Issues**
+- **OCB:** Sharp profit decline (PBT -38.5% QoQ), margin at multi-year low (NIM 3.2%), NPL spike to 3.9%, and coverage plunging to 35.0%.
+- **VIB:** Flat profit masks core income drop (TOI -12.8% QoQ), margin compression (NIM 3.0%), NPLs rising to 3.8%, and coverage at multi-year low (38.6%).
+- **TPB:** Asset quality flagged (NPL 2.27% from 1.52%), new NPL formation at 0.94%, coverage fell to 57.1%, profit reliant on low provisions.
+- **VPB:** Profitability dropped sharply (PBT -18.5% QoQ), NPLs rose to 4.7%, new NPL formation doubled, coverage weakened.
+- **BVB &amp; SGB:** Both saw sharp profit pullbacks, margin compression, and renewed asset quality stress (NPLs and group 2 loans up, coverage ratios low).
+---
 ## 3. SIGNIFICANT BANK CHANGES BY TOPIC
-- **Net Interest Margin (NIM) &amp; Profitability:**
-  - **Most Improved:** SSB - Achieved a dramatic surge in profitability with record TOI and net profit gains, driven by strong topline growth and reduced provision expenses.
-  - **Most Concerning:** OCB - Experienced a sharp decline in profitability with TOI and net profit dropping due to margin compression and rising risk costs.
-- **Credit Growth &amp; Lending:**
-  - **Strongest Growth:** NAB - Delivered robust loan growth at 6.0% QoQ, significantly outpacing the sector, indicating aggressive balance sheet expansion.
-  - **Weakest/Declining:** ABB - Loan growth slipped into negative territory QoQ and YTD, reflecting weaker lending appetite and cautious stance.
-- **Asset Quality &amp; Risk Management:**
-  - **Most Improved:** NVB - Showed marked improvement in asset quality with NPL and group 2 ratios at multi-year lows, supported by effective risk management.
-  - **Most Deteriorated:** VIB - Asset quality deteriorated with rising NPL and group 2 formation rates, and coverage ratios weakening to multi-year lows.
-- **Insufficient data available** for additional categories or specific banks not mentioned above.</t>
+### Net Interest Margin (NIM) &amp; Profitability
+- **Most Improved:**
+  - **SSB:** TOI up 80.8% QoQ, PBT up 184.1% QoQ, ROA/ROE at multi-year highs (4.2%/38.0%), driven by core income surge and lower provisions; asset quality stable.
+- **Most Concerning:**
+  - **OCB:** TOI -29.4% QoQ, PBT -38.5% QoQ, NIM at multi-year low (3.2%), ROA/ROE fell to 1.0%/8.9%, significant negative swing in profitability and margins.
+### Credit Growth &amp; Lending
+- **Strongest Growth:**
+  - **KLB:** Loan growth +10.7% QoQ, +18.2% YoY, far outpacing sector, supporting topline and profit momentum.
+  - **NVB:** Loan growth +9.8% QoQ, +34.1% YoY, fastest sequential expansion in over a year, supporting profit turnaround.
+  - **MSB, SHB, PGB, EIB:** All reported loan growth &gt;9% QoQ, signaling aggressive expansion.
+- **Weakest/Declining:**
+  - **ABB:** Loan growth negative (-0.7% QoQ, YTD), only bank with contraction, reflecting risk aversion or weak demand.
+  - **SGB:** Loan book contracted -4.3% QoQ, reversing prior quarter’s growth, underperforming sector.
+### Asset Quality &amp; Risk Management
+- **Most Improved:**
+  - **NVB:** NPL ratio dropped to 14% from 19.5%, group 2 loans down, negative formation rates, coverage up to 11.2% (though still low).
+  - **VAB:** NPL ratio fell to 0.63% from 1.37%, coverage surged to 150.2%, though group 2 loans spiked (latent risk).
+  - **SSB:** NPL and group 2 ratios stable/improving, negative formation rates, coverage robust at 81.8%.
+- **Most Deteriorated:**
+  - **OCB:** NPL ratio up to 3.9% from 3.2%, new NPL formation 1.2%, coverage plunged to 35.0%.
+  - **TPB:** NPL up to 2.27% from 1.52%, new NPL formation 0.94%, coverage fell to 57.1%.
+  - **VIB:** NPL up to 3.8% from 3.5%, new NPL formation 0.78%, coverage at multi-year low (38.6%).
+  - **VPB:** NPL up to 4.7% from 4.2%, new NPL formation doubled, coverage fell to 47.4%.
+  - **SGB:** NPL up to 3.3% from 2.7%, group 2 loans up to 5.7%, coverage dropped to 31.6%.
+---
+**Insufficient data available:** All major categories are covered with sufficient detail from the comments.</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>27</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45874.74906557218</v>
+        <v>45874.75651759063</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -680,42 +839,114 @@
       <c r="B6" t="inlineStr">
         <is>
           <t>## 1. KEY CHANGES SUMMARY
-- **Overall Banking Sector Performance and Market Conditions:**
-  - The Vietnamese banking sector in 2Q25 demonstrated a mixed performance, with many banks showing a rebound in profitability after a challenging 1Q25. However, margin pressures and asset quality concerns persisted across the board.
-  - Loan growth was generally strong, indicating robust credit demand, but net interest margins (NIM) remained under pressure due to competitive pricing and rising funding costs.
-  - Asset quality showed mixed trends, with some banks improving their NPL ratios and coverage, while others faced rising credit costs and deteriorating asset quality.
-- **Common Themes and Patterns Across Different Bank Types:**
-  - **Private Banks:** Generally showed strong loan growth and profitability rebounds, but faced significant NIM compression and asset quality concerns.
-  - **State-Owned Commercial Banks (SOCBs):** Displayed a recovery in profitability, but asset quality issues and margin pressures were more pronounced.
-  - **Smaller/Regional Banks:** Experienced significant variability in performance, with some showing strong rebounds in profitability and asset quality improvements, while others struggled with rising NPLs and declining coverage ratios.
+**Overall Banking Sector Performance &amp; Market Conditions**
+- **Profitability Rebound, but Uneven:** Most banks reported a sequential rebound in profitability after a weak 1Q25, but the recovery is uneven. Several banks posted strong QoQ profit growth (e.g., ACB, CTG, SHB, ABB, VPB), while others saw profits stagnate or decline due to higher provisions (e.g., MBB, HDB, MSB, BVB).
+- **Loan Growth Accelerates:** Loan growth momentum accelerated sector-wide, with many banks reporting double-digit QoQ or YTD expansion (notably VPB, ABB, NVB, NAB, MBB, VIB). This reflects improved credit demand and aggressive market share strategies.
+- **Persistent Margin Compression:** Net interest margin (NIM) pressure remains a sector-wide theme. Most banks reported flat or declining NIMs, with only a few (e.g., SHB, HDB, ABB, NVB) seeing notable rebounds. Margin compression is attributed to lower loan yields and intense deposit competition.
+- **Mixed Asset Quality Trends:** Asset quality is bifurcated. Several banks improved NPL and Group 2 ratios (e.g., ACB, CTG, SHB, ABB, KLB), while others saw deterioration or persistently high NPLs (e.g., BID, BVB, PGB, NAB, SGB). NPL coverage ratios are generally below historical highs, with some banks (e.g., VCB, KLB) maintaining robust buffers.
+- **Provisioning &amp; Credit Costs:** Provision expenses surged at many banks, reflecting either rising NPLs or a more conservative risk stance (e.g., MBB, HDB, MSB, NAB, BVB). A few banks benefited from sharply lower provisions, boosting profits (e.g., CTG, VPB, VIB).
+**Common Themes &amp; Patterns Across Bank Types**
+- **Private Banks:** Showed more aggressive loan growth and greater earnings volatility. Some (e.g., SHB, ABB, VPB, NVB) posted strong recoveries, while others (e.g., MSB, HDB, BVB, PGB) struggled with credit costs and margin pressure.
+- **SOCBs (State-owned):** Generally lagged in profitability and NIM, but maintained better asset quality and coverage (notably VCB). CTG stood out for a profit rebound on lower provisions; BID faced rising NPLs and weak coverage.
+- **Smaller/Regional Banks (Private_3):** Mixed performance. ABB, KLB, and NVB delivered strong profit and asset quality improvements, while BVB, PGB, SGB, and VAB faced profitability and asset quality headwinds.
+- **Margin vs. Volume Trade-off:** Many banks prioritized loan growth at the expense of NIM, with aggressive pricing to capture market share (e.g., VPB, LPB, TPB).
+---
 ## 2. SENTIMENT ANALYSIS &amp; NOTABLE BANKS
-- **Overall Sector Sentiment:** Neutral to slightly negative. While profitability rebounded for many banks, persistent margin compression and asset quality concerns tempered the overall sentiment.
-- **Banks with Most Positive Developments:**
-  - **ACB:** Demonstrated a strong earnings rebound with improved asset quality and effective risk management, despite margin pressures.
-  - **SHB:** Delivered a significant turnaround in profitability with robust loan growth and improved asset quality, driven by a sharp recovery in NIM.
-  - **ABB:** Showed a substantial profitability turnaround with strong loan growth and improved asset quality metrics.
-- **Banks with Most Concerning Issues:**
-  - **BVB:** Faced a sharp deterioration in profitability and asset quality, with rising NPLs and lower coverage ratios.
-  - **PGB:** Despite a profitability rebound, faced stalling loan growth and deteriorating asset quality, raising caution on future credit costs.
-  - **NAB:** Experienced rising credit costs and margin compression, with deteriorating asset quality trends signaling potential future risks.
+**Overall Sector Sentiment**
+- **Neutral-to-Slightly Positive:** The sector is showing signs of recovery after a weak 1Q25, with strong loan growth and some profit rebounds. However, persistent NIM compression, rising credit costs, and uneven asset quality temper the optimism. The tone is cautiously constructive, with clear risks ahead.
+**Banks with Most Positive Developments**
+- **SHB:**  
+  - Delivered a decisive turnaround in profitability (TOI +70.3% QoQ, PBT +58.9% YoY), sharp NIM rebound (4.8% from 3.0%), and improved asset quality (NPL 2.6%, coverage 65.4%).
+  - Outperformed sector on loan growth and risk management.
+- **ABB:**  
+  - Exceptional profit rebound (PBT +202.3% QoQ, +279.4% YoY), loan growth (+17% QoQ), NIM recovery, and material asset quality improvement (NPL 2.7% from 3.8%, coverage 56.9%).
+- **ACB:**  
+  - Strong profit recovery (PBT +32.6% QoQ), robust loan growth (+5.9% QoQ), and improved asset quality (NPL 1.26%, coverage 76.3%).
+  - Demonstrated resilience amid margin headwinds.
+- **NVB:**  
+  - Sharp turnaround in profitability (PBT up 5.3x YoY), strong loan growth (+11.4% QoQ), NIM rebound (2.39% from 1.76%), and significant NPL reduction (11.4% from 14.0%).
+- **KLB:**  
+  - Profit acceleration (PBT +58.4% QoQ), high ROA/ROE, stable NIM, and improved asset quality (NPL 1.96%, coverage 82.8%).
+**Banks with Most Concerning Issues**
+- **BVB:**  
+  - Severe profit collapse (PBT -83.5% QoQ), rising NPLs (3.8% from 3.4%), and falling coverage (40.4%).
+  - Loan growth slowing, asset quality deteriorating.
+- **BID:**  
+  - Rising NPLs (1.98%), declining coverage (0.89x), and NIM well below sector (2.08%).
+  - Profitability lags peers; asset quality and margin trends are negative.
+- **PGB:**  
+  - Loan growth stalled, NPLs rose sharply (3.33% from 2.71%), coverage dropped (35.6%).
+  - Margin pressure persists despite profit rebound.
+- **SGB:**  
+  - Profitability and loan growth contracted, asset quality remains weak (NPL 3.2%, Group 2 6.0%, low coverage 32.4%).
+- **NAB:**  
+  - Asset quality deteriorated (NPL 2.85% from 2.49%, coverage down to 39%), NIM compressed, and provision expenses spiked (+155.9% QoQ).
+---
 ## 3. SIGNIFICANT BANK CHANGES BY TOPIC
-- **Net Interest Margin (NIM) &amp; Profitability:**
-  - **Most Improved:** ABB - Achieved a significant turnaround in profitability with a 202.3% QoQ increase in net profit, supported by a strong rebound in TOI and improved NIM.
-  - **Most Concerning:** BVB - Despite a TOI rebound, faced an 83.5% QoQ collapse in pre-tax profit due to a spike in provision expenses and intensifying credit costs.
-- **Credit Growth &amp; Lending:**
-  - **Strongest Growth:** VPB - Achieved a 13.8% QoQ and 20.0% YTD increase in loan growth, significantly outpacing sector averages.
-  - **Weakest/Declining:** SGB - Experienced a 3.1% QoQ contraction in loan growth, marking a second consecutive quarter of decline.
-- **Asset Quality &amp; Risk Management:**
-  - **Most Improved:** NVB - Reduced NPL ratio from 14.0% to 11.4% QoQ, with improved coverage and effective risk management.
-  - **Most Deteriorated:** BVB - NPL ratio rose to 3.8% from 3.4% QoQ, with declining coverage ratios indicating renewed credit stress.
-- **Insufficient data available** for any additional categories not covered above.</t>
+### Net Interest Margin (NIM) &amp; Profitability
+- **Most Improved:**  
+  - **SHB**  
+    - NIM rebounded sharply to 4.8% from 3.0% QoQ, driving a 70.3% QoQ surge in TOI and 58.9% YoY profit growth.  
+    - Profitability metrics (ROA 1.8%, ROE 23.2%) are sector-leading, with margin recovery the main catalyst.
+  - **ABB**  
+    - PBT more than doubled QoQ (+202.3%), NIM edged up to 1.95% from 1.87%, and ROA/ROE hit multi-year highs (2.1%/27.0%).
+    - Driven by both margin and volume expansion.
+- **Most Concerning:**  
+  - **BVB**  
+    - PBT collapsed 83.5% QoQ, ROA/ROE at multi-year lows (0.04%/0.6%), despite a modest NIM recovery.
+    - Profitability eroded by surging provisions and deteriorating asset quality.
+  - **SGB**  
+    - TOI and PBT fell sharply QoQ (-21.2% and -22.2%), with ROA/ROE dropping, despite a minor NIM uptick.
+---
+### Credit Growth &amp; Lending
+- **Strongest Growth:**  
+  - **VPB**  
+    - Loan growth +13.8% QoQ, +20.0% YTD—well ahead of sector, fueling revenue and profit rebound.
+  - **ABB**  
+    - Loan book up 17.0% QoQ, 16.2% YTD, supporting a sharp TOI and profit surge.
+  - **NVB**  
+    - Loans +11.4% QoQ, +22.3% YTD, driving NIM and profit recovery.
+  - **MBB, VIB, NAB, SHB, TCB**  
+    - All reported double-digit QoQ or YTD loan growth, outpacing sector averages.
+- **Weakest/Declining:**  
+  - **SGB**  
+    - Loan book contracted for a second straight quarter (-3.1% QoQ, -4.3% in 1Q25), now negative YTD.
+  - **PGB**  
+    - Loan growth stalled (+0.06% QoQ) after strong prior expansion.
+  - **BVB**  
+    - Loan growth slowed to 2.5% QoQ from 3.8% prior, below sector pace.
+---
+### Asset Quality &amp; Risk Management
+- **Most Improved:**  
+  - **NVB**  
+    - NPL ratio fell sharply to 11.4% from 14.0% QoQ (and 19.5% at end-2024), Group 2 loans down to 0.7%, coverage up to 13.0%.
+    - Marked turnaround after prior stress.
+  - **ABB**  
+    - NPL ratio dropped to 2.7% from 3.8%, Group 2 loans to 0.7%, coverage up to 56.9%.
+  - **KLB**  
+    - NPL ratio declined to 1.96% from 2.17%, coverage surged to 82.8%.
+  - **ACB, SHB, CTG, STB**  
+    - All reported lower NPL and Group 2 ratios, with improved or robust coverage.
+- **Most Deteriorated:**  
+  - **BVB**  
+    - NPL ratio rose to 3.8% from 3.4%, coverage fell to 40.4%, signaling renewed credit stress.
+  - **PGB**  
+    - NPLs jumped to 3.33% from 2.71%, coverage dropped to 35.6%.
+  - **NAB**  
+    - NPL ratio up to 2.85% from 2.49%, coverage down to 39.0%, provision expenses spiked.
+  - **BID**  
+    - NPL ratio increased to 1.98%, coverage dropped to 0.89x, with elevated provisions.
+  - **SGB**  
+    - Group 2 loans rose to 6.0%, NPL coverage remains low at 32.4%, asset quality still under pressure.
+---
+**Insufficient data available:** N/A—All categories are sufficiently covered based on the provided comments.</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>26</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45874.74889385173</v>
+        <v>45874.75613807595</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>

--- a/Data/quarterly_analysis_results.xlsx
+++ b/Data/quarterly_analysis_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,10 +467,121 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>1Q24</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>## 1. KEY CHANGES SUMMARY
+**Overall Banking Sector Performance &amp; Market Conditions**
+- **Mixed Quarter:** The Vietnamese banking sector in 1Q24 experienced a mixed performance. While topline growth and profitability rebounded for some banks, sector-wide pressures persisted on margins, asset quality, and credit expansion.
+- **Margin Compression:** Net interest margin (NIM) compression was a dominant theme, with most banks reporting lower NIMs due to falling loan yields and competitive lending.
+- **Provision-Driven Profits:** Many profit rebounds were driven by sharply lower provision expenses rather than core revenue growth, masking underlying business softness.
+- **Asset Quality Deterioration:** Asset quality metrics (NPLs, Group 2 loans, coverage ratios) generally worsened, with rising NPL ratios and declining coverage, signaling mounting credit risk.
+- **Loan Growth Divergence:** Loan growth was uneven—some banks (e.g., TCB, LPB, NAB) posted robust expansion, while others (e.g., VCB, SGB, ABB) saw contractions or stagnation.
+- **Sector Segmentation:** Private banks generally outperformed state-owned commercial banks (SOCBs) in topline growth and margins, but also faced sharper asset quality deterioration and more volatile earnings.
+**Common Themes &amp; Patterns Across Bank Types**
+- **SOCBs:** Stable but unexciting profitability; slower loan growth; rising asset quality concerns (e.g., VCB, BID, CTG).
+- **Large Private Banks:** Mixed results—some (TCB, STB) delivered strong growth and stable asset quality, while others (MBB, VPB) saw profit rebounds driven by lower provisions but underlying credit and margin pressures.
+- **Mid/Small Private Banks:** High earnings volatility; profit swings often provision-driven; asset quality and margin compression more acute (e.g., ABB, BVB, VBB, SGB).
+- **Provision Normalization:** Many banks’ profit improvements were technical, due to normalization of provisions after 4Q23 spikes, not from sustainable business momentum.
+- **Funding Cost Management:** Some banks (e.g., TCB, STB, KLB) managed to offset yield pressure with better funding cost control, supporting margins.
+---
+## 2. SENTIMENT ANALYSIS &amp; NOTABLE BANKS
+**Overall Sector Sentiment**
+- **Cautiously Negative/Neutral:** The tone is broadly cautious, with more negative surprises than positive. While a handful of banks delivered strong results, the sector is weighed down by margin compression, asset quality drift, and unsustainable profit drivers.
+**Banks with Most Positive Developments**
+- **Techcombank (TCB):**
+  - Standout performance: TOI up 11.3% QoQ, PBT up 35.1% QoQ, ROA at 2.9%.
+  - Robust loan growth (+7.8% QoQ, +32.3% YoY), margin recovery, and stable/improving asset quality.
+  - NPL ratio edged down, coverage improved, and growth outpaced sector.
+- **Sacombank (STB):**
+  - Solid topline and profit growth YoY, accelerating loan growth, NIM stabilization.
+  - Asset quality held steady, coverage improved, and risk contained.
+- **LPB, NAB:** Strong loan growth, though with some asset quality caveats.
+- **SHB, VPB, TPB:** Sharp profit rebounds, but mainly provision-driven and not underpinned by core business strength.
+**Banks with Most Concerning Issues**
+- **MBB:** Profit fell 7.8% QoQ, NPL ratio spiked to 2.5% (from 1.6%), NPL coverage at multi-year lows (0.80x).
+- **VIB:** Margins and loan growth stalled, NPL ratio rose to 3.6%, coverage weak (49.8%).
+- **SGB, ABB, VBB:** Sharp reversals in topline/profit, margin compression, and asset quality slippage.
+- **NVB:** Still posting losses, NPL coverage critically low (6.4%), despite loan growth.
+- **General Watchpoint:** Many banks’ profit improvements are not sustainable, being driven by temporary provision relief rather than core revenue or risk discipline.
+---
+## 3. SIGNIFICANT BANK CHANGES BY TOPIC
+### Net Interest Margin (NIM) &amp; Profitability
+- **Most Improved:**  
+  - **Techcombank (TCB):**
+    - NIM rebounded to 4.4% (from 4.2% in 4Q23), bucking sector trend.
+    - TOI up 11.3% QoQ, PBT up 35.1% QoQ, ROA at 2.9%, ROE at 18.5%.
+    - Margin expansion and lower provisions drove a clear earnings beat.
+- **Most Concerning:**  
+  - **MBB:**
+    - NIM compressed to 4.0% (from 4.3% in 4Q23), lowest in two years.
+    - Profit before tax fell 7.8% QoQ and 11.0% YoY, with ROA and ROE both sharply down.
+    - Margin pressure and rising risk costs led to the weakest performance in over a year.
+---
+### Credit Growth &amp; Lending
+- **Strongest Growth:**  
+  - **LPB (LienVietPostBank):**
+    - Loan growth surged 11.7% QoQ, far outpacing sector’s 3.5%.
+    - Indicates aggressive business expansion, though with some profitability moderation.
+  - **Techcombank (TCB):**
+    - Loan growth +7.8% QoQ, +32.3% YoY, sector-leading pace.
+    - Driven by both retail and corporate lending.
+- **Weakest/Declining:**  
+  - **ABB:**
+    - Loan book shrank 19.5% QoQ after a surge in 4Q23, sharpest contraction among peers.
+    - Indicates a retrenchment in lending activity.
+  - **VCB, SGB, BVB:**  
+    - VCB: Loan growth dipped -0.5% QoQ after a strong 4Q23.
+    - SGB: Loan balances contracted 1.2% QoQ, reversing prior gains.
+    - BVB: Loan book contracted 1.3% QoQ after strong 4Q23.
+---
+### Asset Quality &amp; Risk Management
+- **Most Improved:**  
+  - **STB (Sacombank):**
+    - NPL ratio unchanged at 2.28%, group 2 loans only slightly up, NPL formation slowed.
+    - Coverage improved to 72.5% (from 68.8%), now above sector.
+    - Credit profile stable with rising buffers.
+  - **NVB:**  
+    - NPL ratio edged down to 2.90% (from 2.98%), NPL and group 2 formation slowed sharply, signaling early stabilization (though coverage remains critically low).
+- **Most Deteriorated:**  
+  - **MBB:**
+    - NPL ratio jumped to 2.5% (from 1.6%), new NPL formation at 1.2% (highest in over a year).
+    - NPL coverage fell to 0.80x, well below history and sector.
+  - **VIB:**
+    - NPL ratio rose to 3.6% (from 3.1%), coverage dipped to 49.8%.
+  - **SGB, ABB, BVB, VBB:**  
+    - SGB: NPL ratio up to 2.4%, group 2 loans up, coverage fell to 39%.
+    - ABB: NPL ratio up to 3.9% (from 2.9%), coverage dipped to 40.3%.
+    - BVB: NPL ratio up to 3.91%, coverage slipped to 38.6%.
+    - VBB: NPL and group 2 ratios both rose, new formation rates up.
+---
+**Insufficient data available:** None—sufficient detail for all categories.
+---
+**Summary:**  
+1Q24 for Vietnamese banks was marked by margin compression, uneven loan growth, and rising asset quality risks. While a few banks (notably TCB, STB) delivered strong, sustainable results, most profit rebounds were provision-driven and not underpinned by core business strength. Asset quality deterioration and margin pressure are sector-wide concerns, with several banks (MBB, VIB, SGB, ABB, VBB) showing clear signs of stress. Investors should remain vigilant for further credit slippage and focus on banks with resilient topline growth, disciplined risk management, and robust coverage ratios.</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45874.75821409936</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2Q24</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>## 1. KEY CHANGES SUMMARY
 **Overall Banking Sector Performance &amp; Market Conditions**
@@ -537,25 +648,25 @@
 **If further granularity is needed by bank size or segment, or for additional metrics, please specify.**</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D3" s="2" t="n">
         <v>45874.75784799524</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>3Q24</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>## 1. KEY CHANGES SUMMARY
 **Overall Banking Sector Performance and Market Conditions**
@@ -656,25 +767,25 @@
 **Insufficient data available:** None—sufficient detail provided for all categories.</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>27</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D4" s="2" t="n">
         <v>45874.75734580588</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>4Q24</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>## 1. KEY CHANGES SUMMARY
 **Overall Banking Sector Performance &amp; Market Conditions**
@@ -739,25 +850,25 @@
 **If you need further breakdown by bank group (SOCB, Private_1, Private_2, Private_3), or a more granular asset quality table, please specify.**</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>27</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D5" s="2" t="n">
         <v>45874.75693546955</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1Q25</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>## 1. KEY CHANGES SUMMARY
 **Overall Banking Sector Performance &amp; Market Conditions**
@@ -818,25 +929,25 @@
 **Insufficient data available:** All major categories are covered with sufficient detail from the comments.</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>27</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D6" s="2" t="n">
         <v>45874.75651759063</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>2Q25</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>## 1. KEY CHANGES SUMMARY
 **Overall Banking Sector Performance &amp; Market Conditions**
@@ -942,13 +1053,13 @@
 **Insufficient data available:** N/A—All categories are sufficiently covered based on the provided comments.</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>26</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D7" s="2" t="n">
         <v>45874.75613807595</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>success</t>
         </is>
